--- a/CS1C_Agile_1.xlsx
+++ b/CS1C_Agile_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Features</t>
   </si>
@@ -25,41 +25,87 @@
     <t>Done</t>
   </si>
   <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Impediment</t>
+  </si>
+  <si>
     <t>Hangman</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Wrote code for outputting word after guesses in VS code then converted it to Unreal and pushed it to repository</t>
+  </si>
+  <si>
+    <t>Retested code for Hangman feature after changing format. Helped Josh with the time feature</t>
+  </si>
+  <si>
+    <t>issues with testing and formatting but finished</t>
+  </si>
+  <si>
     <t>Level Design</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Finished playable area</t>
+  </si>
+  <si>
+    <t>Expand forest</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Score</t>
+    <t>Josh</t>
   </si>
   <si>
-    <t>Hannah</t>
+    <t>wrote code for time in one function</t>
+  </si>
+  <si>
+    <t>wrote code for passing the timer through functions</t>
+  </si>
+  <si>
+    <t>get timer to pass between funcitons without resetting</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
   <si>
     <t>Justen</t>
   </si>
   <si>
-    <t>Liam</t>
+    <t>implemented score feature</t>
   </si>
   <si>
-    <t>Josh</t>
+    <t>assist Josh with time implementation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -67,14 +113,25 @@
     </font>
     <font/>
     <font>
-      <color theme="1"/>
+      <color rgb="FF34A853"/>
+    </font>
+    <font>
+      <color theme="7"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="7"/>
+      <sz val="8.0"/>
+      <color theme="6"/>
+    </font>
+    <font>
+      <color rgb="FFFBBC04"/>
     </font>
     <font>
       <color theme="6"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFBBC04"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -82,13 +139,6 @@
     </font>
     <font>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color theme="7"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="6"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,43 +173,77 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,80 +460,5093 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="16.43"/>
+    <col customWidth="1" min="8" max="8" width="27.57"/>
+    <col customWidth="1" min="9" max="9" width="33.29"/>
+    <col customWidth="1" min="10" max="10" width="25.0"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
     <row r="3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="9" t="s">
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="G5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56">
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58">
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61">
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66">
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67">
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68">
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70">
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71">
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72">
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73">
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74">
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76">
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77">
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78">
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80">
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81">
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82">
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83">
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85">
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86">
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87">
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88">
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89">
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90">
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91">
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92">
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93">
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94">
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95">
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96">
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98">
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99">
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100">
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101">
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102">
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103">
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104">
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106">
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107">
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108">
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109">
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110">
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111">
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116">
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117">
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119">
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120">
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122">
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123">
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124">
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125">
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126">
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127">
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129">
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130">
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131">
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132">
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133">
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134">
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135">
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137">
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138">
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139">
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140">
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141">
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142">
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143">
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144">
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145">
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146">
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147">
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148">
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149">
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150">
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151">
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152">
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153">
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154">
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155">
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156">
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157">
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158">
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159">
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160">
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161">
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162">
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163">
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164">
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+    </row>
+    <row r="165">
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166">
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167">
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168">
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169">
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+    </row>
+    <row r="170">
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171">
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172">
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173">
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174">
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175">
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176">
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177">
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178">
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179">
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180">
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181">
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182">
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183">
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184">
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185">
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186">
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187">
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188">
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189">
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190">
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191">
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192">
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193">
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194">
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195">
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196">
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197">
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198">
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+    </row>
+    <row r="199">
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+    </row>
+    <row r="200">
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+    </row>
+    <row r="201">
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202">
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+    </row>
+    <row r="203">
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+    </row>
+    <row r="205">
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+    </row>
+    <row r="206">
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+    </row>
+    <row r="207">
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+    </row>
+    <row r="208">
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+    </row>
+    <row r="209">
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+    </row>
+    <row r="210">
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211">
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+    </row>
+    <row r="212">
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+    </row>
+    <row r="213">
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+    </row>
+    <row r="214">
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+    </row>
+    <row r="215">
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+    </row>
+    <row r="216">
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+    </row>
+    <row r="217">
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+    </row>
+    <row r="218">
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+    </row>
+    <row r="219">
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+    </row>
+    <row r="220">
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+    </row>
+    <row r="221">
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+    </row>
+    <row r="222">
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+    </row>
+    <row r="223">
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+    </row>
+    <row r="224">
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+    </row>
+    <row r="225">
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+    </row>
+    <row r="226">
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+    </row>
+    <row r="227">
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+    </row>
+    <row r="228">
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+    </row>
+    <row r="229">
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+    </row>
+    <row r="230">
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231">
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+    </row>
+    <row r="233">
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+    </row>
+    <row r="234">
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+    </row>
+    <row r="235">
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+    </row>
+    <row r="236">
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+    </row>
+    <row r="237">
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+    </row>
+    <row r="238">
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+    </row>
+    <row r="239">
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+    </row>
+    <row r="240">
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241">
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242">
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+    </row>
+    <row r="243">
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+    </row>
+    <row r="244">
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+    </row>
+    <row r="245">
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+    </row>
+    <row r="246">
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+    </row>
+    <row r="247">
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+    </row>
+    <row r="248">
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+    </row>
+    <row r="249">
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+    </row>
+    <row r="250">
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+    </row>
+    <row r="251">
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+    </row>
+    <row r="252">
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+    </row>
+    <row r="253">
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+    </row>
+    <row r="254">
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+    </row>
+    <row r="255">
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+    </row>
+    <row r="256">
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+    </row>
+    <row r="257">
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+    </row>
+    <row r="258">
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+    </row>
+    <row r="259">
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+    </row>
+    <row r="260">
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+    </row>
+    <row r="261">
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+    </row>
+    <row r="262">
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+    </row>
+    <row r="263">
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+    </row>
+    <row r="264">
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+    </row>
+    <row r="265">
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+    </row>
+    <row r="266">
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+    </row>
+    <row r="267">
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+    </row>
+    <row r="268">
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+    </row>
+    <row r="269">
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+    </row>
+    <row r="270">
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+    </row>
+    <row r="271">
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+    </row>
+    <row r="272">
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+    </row>
+    <row r="273">
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+    </row>
+    <row r="274">
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+    </row>
+    <row r="275">
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+    </row>
+    <row r="276">
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+    </row>
+    <row r="277">
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+    </row>
+    <row r="278">
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+    </row>
+    <row r="279">
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+    </row>
+    <row r="280">
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+    </row>
+    <row r="281">
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+    </row>
+    <row r="282">
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+    </row>
+    <row r="283">
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
+      <c r="J283" s="1"/>
+    </row>
+    <row r="284">
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+    </row>
+    <row r="285">
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+    </row>
+    <row r="286">
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+    </row>
+    <row r="287">
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+    </row>
+    <row r="288">
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+    </row>
+    <row r="289">
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+    </row>
+    <row r="290">
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+    </row>
+    <row r="291">
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+    </row>
+    <row r="292">
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+    </row>
+    <row r="293">
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+    </row>
+    <row r="294">
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+    </row>
+    <row r="295">
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+    </row>
+    <row r="296">
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+    </row>
+    <row r="297">
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+    </row>
+    <row r="298">
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+    </row>
+    <row r="299">
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+    </row>
+    <row r="300">
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+    </row>
+    <row r="301">
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+    </row>
+    <row r="302">
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+    </row>
+    <row r="303">
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+    </row>
+    <row r="304">
+      <c r="H304" s="1"/>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
+    </row>
+    <row r="305">
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+    </row>
+    <row r="306">
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+    </row>
+    <row r="307">
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+      <c r="J307" s="1"/>
+    </row>
+    <row r="308">
+      <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
+      <c r="J308" s="1"/>
+    </row>
+    <row r="309">
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+      <c r="J309" s="1"/>
+    </row>
+    <row r="310">
+      <c r="H310" s="1"/>
+      <c r="I310" s="1"/>
+      <c r="J310" s="1"/>
+    </row>
+    <row r="311">
+      <c r="H311" s="1"/>
+      <c r="I311" s="1"/>
+      <c r="J311" s="1"/>
+    </row>
+    <row r="312">
+      <c r="H312" s="1"/>
+      <c r="I312" s="1"/>
+      <c r="J312" s="1"/>
+    </row>
+    <row r="313">
+      <c r="H313" s="1"/>
+      <c r="I313" s="1"/>
+      <c r="J313" s="1"/>
+    </row>
+    <row r="314">
+      <c r="H314" s="1"/>
+      <c r="I314" s="1"/>
+      <c r="J314" s="1"/>
+    </row>
+    <row r="315">
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+      <c r="J315" s="1"/>
+    </row>
+    <row r="316">
+      <c r="H316" s="1"/>
+      <c r="I316" s="1"/>
+      <c r="J316" s="1"/>
+    </row>
+    <row r="317">
+      <c r="H317" s="1"/>
+      <c r="I317" s="1"/>
+      <c r="J317" s="1"/>
+    </row>
+    <row r="318">
+      <c r="H318" s="1"/>
+      <c r="I318" s="1"/>
+      <c r="J318" s="1"/>
+    </row>
+    <row r="319">
+      <c r="H319" s="1"/>
+      <c r="I319" s="1"/>
+      <c r="J319" s="1"/>
+    </row>
+    <row r="320">
+      <c r="H320" s="1"/>
+      <c r="I320" s="1"/>
+      <c r="J320" s="1"/>
+    </row>
+    <row r="321">
+      <c r="H321" s="1"/>
+      <c r="I321" s="1"/>
+      <c r="J321" s="1"/>
+    </row>
+    <row r="322">
+      <c r="H322" s="1"/>
+      <c r="I322" s="1"/>
+      <c r="J322" s="1"/>
+    </row>
+    <row r="323">
+      <c r="H323" s="1"/>
+      <c r="I323" s="1"/>
+      <c r="J323" s="1"/>
+    </row>
+    <row r="324">
+      <c r="H324" s="1"/>
+      <c r="I324" s="1"/>
+      <c r="J324" s="1"/>
+    </row>
+    <row r="325">
+      <c r="H325" s="1"/>
+      <c r="I325" s="1"/>
+      <c r="J325" s="1"/>
+    </row>
+    <row r="326">
+      <c r="H326" s="1"/>
+      <c r="I326" s="1"/>
+      <c r="J326" s="1"/>
+    </row>
+    <row r="327">
+      <c r="H327" s="1"/>
+      <c r="I327" s="1"/>
+      <c r="J327" s="1"/>
+    </row>
+    <row r="328">
+      <c r="H328" s="1"/>
+      <c r="I328" s="1"/>
+      <c r="J328" s="1"/>
+    </row>
+    <row r="329">
+      <c r="H329" s="1"/>
+      <c r="I329" s="1"/>
+      <c r="J329" s="1"/>
+    </row>
+    <row r="330">
+      <c r="H330" s="1"/>
+      <c r="I330" s="1"/>
+      <c r="J330" s="1"/>
+    </row>
+    <row r="331">
+      <c r="H331" s="1"/>
+      <c r="I331" s="1"/>
+      <c r="J331" s="1"/>
+    </row>
+    <row r="332">
+      <c r="H332" s="1"/>
+      <c r="I332" s="1"/>
+      <c r="J332" s="1"/>
+    </row>
+    <row r="333">
+      <c r="H333" s="1"/>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1"/>
+    </row>
+    <row r="334">
+      <c r="H334" s="1"/>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+    </row>
+    <row r="335">
+      <c r="H335" s="1"/>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+    </row>
+    <row r="336">
+      <c r="H336" s="1"/>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
+    </row>
+    <row r="337">
+      <c r="H337" s="1"/>
+      <c r="I337" s="1"/>
+      <c r="J337" s="1"/>
+    </row>
+    <row r="338">
+      <c r="H338" s="1"/>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
+    </row>
+    <row r="339">
+      <c r="H339" s="1"/>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1"/>
+    </row>
+    <row r="340">
+      <c r="H340" s="1"/>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1"/>
+    </row>
+    <row r="341">
+      <c r="H341" s="1"/>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
+    </row>
+    <row r="342">
+      <c r="H342" s="1"/>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1"/>
+    </row>
+    <row r="343">
+      <c r="H343" s="1"/>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+    </row>
+    <row r="344">
+      <c r="H344" s="1"/>
+      <c r="I344" s="1"/>
+      <c r="J344" s="1"/>
+    </row>
+    <row r="345">
+      <c r="H345" s="1"/>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+    </row>
+    <row r="346">
+      <c r="H346" s="1"/>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
+    </row>
+    <row r="347">
+      <c r="H347" s="1"/>
+      <c r="I347" s="1"/>
+      <c r="J347" s="1"/>
+    </row>
+    <row r="348">
+      <c r="H348" s="1"/>
+      <c r="I348" s="1"/>
+      <c r="J348" s="1"/>
+    </row>
+    <row r="349">
+      <c r="H349" s="1"/>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+    </row>
+    <row r="350">
+      <c r="H350" s="1"/>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+    </row>
+    <row r="351">
+      <c r="H351" s="1"/>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+    </row>
+    <row r="352">
+      <c r="H352" s="1"/>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1"/>
+    </row>
+    <row r="353">
+      <c r="H353" s="1"/>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+    </row>
+    <row r="354">
+      <c r="H354" s="1"/>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+    </row>
+    <row r="355">
+      <c r="H355" s="1"/>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
+    </row>
+    <row r="356">
+      <c r="H356" s="1"/>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+    </row>
+    <row r="357">
+      <c r="H357" s="1"/>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+    </row>
+    <row r="358">
+      <c r="H358" s="1"/>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+    </row>
+    <row r="359">
+      <c r="H359" s="1"/>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1"/>
+    </row>
+    <row r="360">
+      <c r="H360" s="1"/>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+    </row>
+    <row r="361">
+      <c r="H361" s="1"/>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+    </row>
+    <row r="362">
+      <c r="H362" s="1"/>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+    </row>
+    <row r="363">
+      <c r="H363" s="1"/>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+    </row>
+    <row r="364">
+      <c r="H364" s="1"/>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+    </row>
+    <row r="365">
+      <c r="H365" s="1"/>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
+    </row>
+    <row r="366">
+      <c r="H366" s="1"/>
+      <c r="I366" s="1"/>
+      <c r="J366" s="1"/>
+    </row>
+    <row r="367">
+      <c r="H367" s="1"/>
+      <c r="I367" s="1"/>
+      <c r="J367" s="1"/>
+    </row>
+    <row r="368">
+      <c r="H368" s="1"/>
+      <c r="I368" s="1"/>
+      <c r="J368" s="1"/>
+    </row>
+    <row r="369">
+      <c r="H369" s="1"/>
+      <c r="I369" s="1"/>
+      <c r="J369" s="1"/>
+    </row>
+    <row r="370">
+      <c r="H370" s="1"/>
+      <c r="I370" s="1"/>
+      <c r="J370" s="1"/>
+    </row>
+    <row r="371">
+      <c r="H371" s="1"/>
+      <c r="I371" s="1"/>
+      <c r="J371" s="1"/>
+    </row>
+    <row r="372">
+      <c r="H372" s="1"/>
+      <c r="I372" s="1"/>
+      <c r="J372" s="1"/>
+    </row>
+    <row r="373">
+      <c r="H373" s="1"/>
+      <c r="I373" s="1"/>
+      <c r="J373" s="1"/>
+    </row>
+    <row r="374">
+      <c r="H374" s="1"/>
+      <c r="I374" s="1"/>
+      <c r="J374" s="1"/>
+    </row>
+    <row r="375">
+      <c r="H375" s="1"/>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+    </row>
+    <row r="376">
+      <c r="H376" s="1"/>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
+    </row>
+    <row r="377">
+      <c r="H377" s="1"/>
+      <c r="I377" s="1"/>
+      <c r="J377" s="1"/>
+    </row>
+    <row r="378">
+      <c r="H378" s="1"/>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+    </row>
+    <row r="379">
+      <c r="H379" s="1"/>
+      <c r="I379" s="1"/>
+      <c r="J379" s="1"/>
+    </row>
+    <row r="380">
+      <c r="H380" s="1"/>
+      <c r="I380" s="1"/>
+      <c r="J380" s="1"/>
+    </row>
+    <row r="381">
+      <c r="H381" s="1"/>
+      <c r="I381" s="1"/>
+      <c r="J381" s="1"/>
+    </row>
+    <row r="382">
+      <c r="H382" s="1"/>
+      <c r="I382" s="1"/>
+      <c r="J382" s="1"/>
+    </row>
+    <row r="383">
+      <c r="H383" s="1"/>
+      <c r="I383" s="1"/>
+      <c r="J383" s="1"/>
+    </row>
+    <row r="384">
+      <c r="H384" s="1"/>
+      <c r="I384" s="1"/>
+      <c r="J384" s="1"/>
+    </row>
+    <row r="385">
+      <c r="H385" s="1"/>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
+    </row>
+    <row r="386">
+      <c r="H386" s="1"/>
+      <c r="I386" s="1"/>
+      <c r="J386" s="1"/>
+    </row>
+    <row r="387">
+      <c r="H387" s="1"/>
+      <c r="I387" s="1"/>
+      <c r="J387" s="1"/>
+    </row>
+    <row r="388">
+      <c r="H388" s="1"/>
+      <c r="I388" s="1"/>
+      <c r="J388" s="1"/>
+    </row>
+    <row r="389">
+      <c r="H389" s="1"/>
+      <c r="I389" s="1"/>
+      <c r="J389" s="1"/>
+    </row>
+    <row r="390">
+      <c r="H390" s="1"/>
+      <c r="I390" s="1"/>
+      <c r="J390" s="1"/>
+    </row>
+    <row r="391">
+      <c r="H391" s="1"/>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+    </row>
+    <row r="392">
+      <c r="H392" s="1"/>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+    </row>
+    <row r="393">
+      <c r="H393" s="1"/>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+    </row>
+    <row r="394">
+      <c r="H394" s="1"/>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+    </row>
+    <row r="395">
+      <c r="H395" s="1"/>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+    </row>
+    <row r="396">
+      <c r="H396" s="1"/>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
+    </row>
+    <row r="397">
+      <c r="H397" s="1"/>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+    </row>
+    <row r="398">
+      <c r="H398" s="1"/>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+    </row>
+    <row r="399">
+      <c r="H399" s="1"/>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+    </row>
+    <row r="400">
+      <c r="H400" s="1"/>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+    </row>
+    <row r="401">
+      <c r="H401" s="1"/>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
+    </row>
+    <row r="402">
+      <c r="H402" s="1"/>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+    </row>
+    <row r="403">
+      <c r="H403" s="1"/>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1"/>
+    </row>
+    <row r="404">
+      <c r="H404" s="1"/>
+      <c r="I404" s="1"/>
+      <c r="J404" s="1"/>
+    </row>
+    <row r="405">
+      <c r="H405" s="1"/>
+      <c r="I405" s="1"/>
+      <c r="J405" s="1"/>
+    </row>
+    <row r="406">
+      <c r="H406" s="1"/>
+      <c r="I406" s="1"/>
+      <c r="J406" s="1"/>
+    </row>
+    <row r="407">
+      <c r="H407" s="1"/>
+      <c r="I407" s="1"/>
+      <c r="J407" s="1"/>
+    </row>
+    <row r="408">
+      <c r="H408" s="1"/>
+      <c r="I408" s="1"/>
+      <c r="J408" s="1"/>
+    </row>
+    <row r="409">
+      <c r="H409" s="1"/>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+    </row>
+    <row r="410">
+      <c r="H410" s="1"/>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+    </row>
+    <row r="411">
+      <c r="H411" s="1"/>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412">
+      <c r="H412" s="1"/>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413">
+      <c r="H413" s="1"/>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414">
+      <c r="H414" s="1"/>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+    </row>
+    <row r="415">
+      <c r="H415" s="1"/>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+    </row>
+    <row r="416">
+      <c r="H416" s="1"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+    </row>
+    <row r="417">
+      <c r="H417" s="1"/>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+    </row>
+    <row r="418">
+      <c r="H418" s="1"/>
+      <c r="I418" s="1"/>
+      <c r="J418" s="1"/>
+    </row>
+    <row r="419">
+      <c r="H419" s="1"/>
+      <c r="I419" s="1"/>
+      <c r="J419" s="1"/>
+    </row>
+    <row r="420">
+      <c r="H420" s="1"/>
+      <c r="I420" s="1"/>
+      <c r="J420" s="1"/>
+    </row>
+    <row r="421">
+      <c r="H421" s="1"/>
+      <c r="I421" s="1"/>
+      <c r="J421" s="1"/>
+    </row>
+    <row r="422">
+      <c r="H422" s="1"/>
+      <c r="I422" s="1"/>
+      <c r="J422" s="1"/>
+    </row>
+    <row r="423">
+      <c r="H423" s="1"/>
+      <c r="I423" s="1"/>
+      <c r="J423" s="1"/>
+    </row>
+    <row r="424">
+      <c r="H424" s="1"/>
+      <c r="I424" s="1"/>
+      <c r="J424" s="1"/>
+    </row>
+    <row r="425">
+      <c r="H425" s="1"/>
+      <c r="I425" s="1"/>
+      <c r="J425" s="1"/>
+    </row>
+    <row r="426">
+      <c r="H426" s="1"/>
+      <c r="I426" s="1"/>
+      <c r="J426" s="1"/>
+    </row>
+    <row r="427">
+      <c r="H427" s="1"/>
+      <c r="I427" s="1"/>
+      <c r="J427" s="1"/>
+    </row>
+    <row r="428">
+      <c r="H428" s="1"/>
+      <c r="I428" s="1"/>
+      <c r="J428" s="1"/>
+    </row>
+    <row r="429">
+      <c r="H429" s="1"/>
+      <c r="I429" s="1"/>
+      <c r="J429" s="1"/>
+    </row>
+    <row r="430">
+      <c r="H430" s="1"/>
+      <c r="I430" s="1"/>
+      <c r="J430" s="1"/>
+    </row>
+    <row r="431">
+      <c r="H431" s="1"/>
+      <c r="I431" s="1"/>
+      <c r="J431" s="1"/>
+    </row>
+    <row r="432">
+      <c r="H432" s="1"/>
+      <c r="I432" s="1"/>
+      <c r="J432" s="1"/>
+    </row>
+    <row r="433">
+      <c r="H433" s="1"/>
+      <c r="I433" s="1"/>
+      <c r="J433" s="1"/>
+    </row>
+    <row r="434">
+      <c r="H434" s="1"/>
+      <c r="I434" s="1"/>
+      <c r="J434" s="1"/>
+    </row>
+    <row r="435">
+      <c r="H435" s="1"/>
+      <c r="I435" s="1"/>
+      <c r="J435" s="1"/>
+    </row>
+    <row r="436">
+      <c r="H436" s="1"/>
+      <c r="I436" s="1"/>
+      <c r="J436" s="1"/>
+    </row>
+    <row r="437">
+      <c r="H437" s="1"/>
+      <c r="I437" s="1"/>
+      <c r="J437" s="1"/>
+    </row>
+    <row r="438">
+      <c r="H438" s="1"/>
+      <c r="I438" s="1"/>
+      <c r="J438" s="1"/>
+    </row>
+    <row r="439">
+      <c r="H439" s="1"/>
+      <c r="I439" s="1"/>
+      <c r="J439" s="1"/>
+    </row>
+    <row r="440">
+      <c r="H440" s="1"/>
+      <c r="I440" s="1"/>
+      <c r="J440" s="1"/>
+    </row>
+    <row r="441">
+      <c r="H441" s="1"/>
+      <c r="I441" s="1"/>
+      <c r="J441" s="1"/>
+    </row>
+    <row r="442">
+      <c r="H442" s="1"/>
+      <c r="I442" s="1"/>
+      <c r="J442" s="1"/>
+    </row>
+    <row r="443">
+      <c r="H443" s="1"/>
+      <c r="I443" s="1"/>
+      <c r="J443" s="1"/>
+    </row>
+    <row r="444">
+      <c r="H444" s="1"/>
+      <c r="I444" s="1"/>
+      <c r="J444" s="1"/>
+    </row>
+    <row r="445">
+      <c r="H445" s="1"/>
+      <c r="I445" s="1"/>
+      <c r="J445" s="1"/>
+    </row>
+    <row r="446">
+      <c r="H446" s="1"/>
+      <c r="I446" s="1"/>
+      <c r="J446" s="1"/>
+    </row>
+    <row r="447">
+      <c r="H447" s="1"/>
+      <c r="I447" s="1"/>
+      <c r="J447" s="1"/>
+    </row>
+    <row r="448">
+      <c r="H448" s="1"/>
+      <c r="I448" s="1"/>
+      <c r="J448" s="1"/>
+    </row>
+    <row r="449">
+      <c r="H449" s="1"/>
+      <c r="I449" s="1"/>
+      <c r="J449" s="1"/>
+    </row>
+    <row r="450">
+      <c r="H450" s="1"/>
+      <c r="I450" s="1"/>
+      <c r="J450" s="1"/>
+    </row>
+    <row r="451">
+      <c r="H451" s="1"/>
+      <c r="I451" s="1"/>
+      <c r="J451" s="1"/>
+    </row>
+    <row r="452">
+      <c r="H452" s="1"/>
+      <c r="I452" s="1"/>
+      <c r="J452" s="1"/>
+    </row>
+    <row r="453">
+      <c r="H453" s="1"/>
+      <c r="I453" s="1"/>
+      <c r="J453" s="1"/>
+    </row>
+    <row r="454">
+      <c r="H454" s="1"/>
+      <c r="I454" s="1"/>
+      <c r="J454" s="1"/>
+    </row>
+    <row r="455">
+      <c r="H455" s="1"/>
+      <c r="I455" s="1"/>
+      <c r="J455" s="1"/>
+    </row>
+    <row r="456">
+      <c r="H456" s="1"/>
+      <c r="I456" s="1"/>
+      <c r="J456" s="1"/>
+    </row>
+    <row r="457">
+      <c r="H457" s="1"/>
+      <c r="I457" s="1"/>
+      <c r="J457" s="1"/>
+    </row>
+    <row r="458">
+      <c r="H458" s="1"/>
+      <c r="I458" s="1"/>
+      <c r="J458" s="1"/>
+    </row>
+    <row r="459">
+      <c r="H459" s="1"/>
+      <c r="I459" s="1"/>
+      <c r="J459" s="1"/>
+    </row>
+    <row r="460">
+      <c r="H460" s="1"/>
+      <c r="I460" s="1"/>
+      <c r="J460" s="1"/>
+    </row>
+    <row r="461">
+      <c r="H461" s="1"/>
+      <c r="I461" s="1"/>
+      <c r="J461" s="1"/>
+    </row>
+    <row r="462">
+      <c r="H462" s="1"/>
+      <c r="I462" s="1"/>
+      <c r="J462" s="1"/>
+    </row>
+    <row r="463">
+      <c r="H463" s="1"/>
+      <c r="I463" s="1"/>
+      <c r="J463" s="1"/>
+    </row>
+    <row r="464">
+      <c r="H464" s="1"/>
+      <c r="I464" s="1"/>
+      <c r="J464" s="1"/>
+    </row>
+    <row r="465">
+      <c r="H465" s="1"/>
+      <c r="I465" s="1"/>
+      <c r="J465" s="1"/>
+    </row>
+    <row r="466">
+      <c r="H466" s="1"/>
+      <c r="I466" s="1"/>
+      <c r="J466" s="1"/>
+    </row>
+    <row r="467">
+      <c r="H467" s="1"/>
+      <c r="I467" s="1"/>
+      <c r="J467" s="1"/>
+    </row>
+    <row r="468">
+      <c r="H468" s="1"/>
+      <c r="I468" s="1"/>
+      <c r="J468" s="1"/>
+    </row>
+    <row r="469">
+      <c r="H469" s="1"/>
+      <c r="I469" s="1"/>
+      <c r="J469" s="1"/>
+    </row>
+    <row r="470">
+      <c r="H470" s="1"/>
+      <c r="I470" s="1"/>
+      <c r="J470" s="1"/>
+    </row>
+    <row r="471">
+      <c r="H471" s="1"/>
+      <c r="I471" s="1"/>
+      <c r="J471" s="1"/>
+    </row>
+    <row r="472">
+      <c r="H472" s="1"/>
+      <c r="I472" s="1"/>
+      <c r="J472" s="1"/>
+    </row>
+    <row r="473">
+      <c r="H473" s="1"/>
+      <c r="I473" s="1"/>
+      <c r="J473" s="1"/>
+    </row>
+    <row r="474">
+      <c r="H474" s="1"/>
+      <c r="I474" s="1"/>
+      <c r="J474" s="1"/>
+    </row>
+    <row r="475">
+      <c r="H475" s="1"/>
+      <c r="I475" s="1"/>
+      <c r="J475" s="1"/>
+    </row>
+    <row r="476">
+      <c r="H476" s="1"/>
+      <c r="I476" s="1"/>
+      <c r="J476" s="1"/>
+    </row>
+    <row r="477">
+      <c r="H477" s="1"/>
+      <c r="I477" s="1"/>
+      <c r="J477" s="1"/>
+    </row>
+    <row r="478">
+      <c r="H478" s="1"/>
+      <c r="I478" s="1"/>
+      <c r="J478" s="1"/>
+    </row>
+    <row r="479">
+      <c r="H479" s="1"/>
+      <c r="I479" s="1"/>
+      <c r="J479" s="1"/>
+    </row>
+    <row r="480">
+      <c r="H480" s="1"/>
+      <c r="I480" s="1"/>
+      <c r="J480" s="1"/>
+    </row>
+    <row r="481">
+      <c r="H481" s="1"/>
+      <c r="I481" s="1"/>
+      <c r="J481" s="1"/>
+    </row>
+    <row r="482">
+      <c r="H482" s="1"/>
+      <c r="I482" s="1"/>
+      <c r="J482" s="1"/>
+    </row>
+    <row r="483">
+      <c r="H483" s="1"/>
+      <c r="I483" s="1"/>
+      <c r="J483" s="1"/>
+    </row>
+    <row r="484">
+      <c r="H484" s="1"/>
+      <c r="I484" s="1"/>
+      <c r="J484" s="1"/>
+    </row>
+    <row r="485">
+      <c r="H485" s="1"/>
+      <c r="I485" s="1"/>
+      <c r="J485" s="1"/>
+    </row>
+    <row r="486">
+      <c r="H486" s="1"/>
+      <c r="I486" s="1"/>
+      <c r="J486" s="1"/>
+    </row>
+    <row r="487">
+      <c r="H487" s="1"/>
+      <c r="I487" s="1"/>
+      <c r="J487" s="1"/>
+    </row>
+    <row r="488">
+      <c r="H488" s="1"/>
+      <c r="I488" s="1"/>
+      <c r="J488" s="1"/>
+    </row>
+    <row r="489">
+      <c r="H489" s="1"/>
+      <c r="I489" s="1"/>
+      <c r="J489" s="1"/>
+    </row>
+    <row r="490">
+      <c r="H490" s="1"/>
+      <c r="I490" s="1"/>
+      <c r="J490" s="1"/>
+    </row>
+    <row r="491">
+      <c r="H491" s="1"/>
+      <c r="I491" s="1"/>
+      <c r="J491" s="1"/>
+    </row>
+    <row r="492">
+      <c r="H492" s="1"/>
+      <c r="I492" s="1"/>
+      <c r="J492" s="1"/>
+    </row>
+    <row r="493">
+      <c r="H493" s="1"/>
+      <c r="I493" s="1"/>
+      <c r="J493" s="1"/>
+    </row>
+    <row r="494">
+      <c r="H494" s="1"/>
+      <c r="I494" s="1"/>
+      <c r="J494" s="1"/>
+    </row>
+    <row r="495">
+      <c r="H495" s="1"/>
+      <c r="I495" s="1"/>
+      <c r="J495" s="1"/>
+    </row>
+    <row r="496">
+      <c r="H496" s="1"/>
+      <c r="I496" s="1"/>
+      <c r="J496" s="1"/>
+    </row>
+    <row r="497">
+      <c r="H497" s="1"/>
+      <c r="I497" s="1"/>
+      <c r="J497" s="1"/>
+    </row>
+    <row r="498">
+      <c r="H498" s="1"/>
+      <c r="I498" s="1"/>
+      <c r="J498" s="1"/>
+    </row>
+    <row r="499">
+      <c r="H499" s="1"/>
+      <c r="I499" s="1"/>
+      <c r="J499" s="1"/>
+    </row>
+    <row r="500">
+      <c r="H500" s="1"/>
+      <c r="I500" s="1"/>
+      <c r="J500" s="1"/>
+    </row>
+    <row r="501">
+      <c r="H501" s="1"/>
+      <c r="I501" s="1"/>
+      <c r="J501" s="1"/>
+    </row>
+    <row r="502">
+      <c r="H502" s="1"/>
+      <c r="I502" s="1"/>
+      <c r="J502" s="1"/>
+    </row>
+    <row r="503">
+      <c r="H503" s="1"/>
+      <c r="I503" s="1"/>
+      <c r="J503" s="1"/>
+    </row>
+    <row r="504">
+      <c r="H504" s="1"/>
+      <c r="I504" s="1"/>
+      <c r="J504" s="1"/>
+    </row>
+    <row r="505">
+      <c r="H505" s="1"/>
+      <c r="I505" s="1"/>
+      <c r="J505" s="1"/>
+    </row>
+    <row r="506">
+      <c r="H506" s="1"/>
+      <c r="I506" s="1"/>
+      <c r="J506" s="1"/>
+    </row>
+    <row r="507">
+      <c r="H507" s="1"/>
+      <c r="I507" s="1"/>
+      <c r="J507" s="1"/>
+    </row>
+    <row r="508">
+      <c r="H508" s="1"/>
+      <c r="I508" s="1"/>
+      <c r="J508" s="1"/>
+    </row>
+    <row r="509">
+      <c r="H509" s="1"/>
+      <c r="I509" s="1"/>
+      <c r="J509" s="1"/>
+    </row>
+    <row r="510">
+      <c r="H510" s="1"/>
+      <c r="I510" s="1"/>
+      <c r="J510" s="1"/>
+    </row>
+    <row r="511">
+      <c r="H511" s="1"/>
+      <c r="I511" s="1"/>
+      <c r="J511" s="1"/>
+    </row>
+    <row r="512">
+      <c r="H512" s="1"/>
+      <c r="I512" s="1"/>
+      <c r="J512" s="1"/>
+    </row>
+    <row r="513">
+      <c r="H513" s="1"/>
+      <c r="I513" s="1"/>
+      <c r="J513" s="1"/>
+    </row>
+    <row r="514">
+      <c r="H514" s="1"/>
+      <c r="I514" s="1"/>
+      <c r="J514" s="1"/>
+    </row>
+    <row r="515">
+      <c r="H515" s="1"/>
+      <c r="I515" s="1"/>
+      <c r="J515" s="1"/>
+    </row>
+    <row r="516">
+      <c r="H516" s="1"/>
+      <c r="I516" s="1"/>
+      <c r="J516" s="1"/>
+    </row>
+    <row r="517">
+      <c r="H517" s="1"/>
+      <c r="I517" s="1"/>
+      <c r="J517" s="1"/>
+    </row>
+    <row r="518">
+      <c r="H518" s="1"/>
+      <c r="I518" s="1"/>
+      <c r="J518" s="1"/>
+    </row>
+    <row r="519">
+      <c r="H519" s="1"/>
+      <c r="I519" s="1"/>
+      <c r="J519" s="1"/>
+    </row>
+    <row r="520">
+      <c r="H520" s="1"/>
+      <c r="I520" s="1"/>
+      <c r="J520" s="1"/>
+    </row>
+    <row r="521">
+      <c r="H521" s="1"/>
+      <c r="I521" s="1"/>
+      <c r="J521" s="1"/>
+    </row>
+    <row r="522">
+      <c r="H522" s="1"/>
+      <c r="I522" s="1"/>
+      <c r="J522" s="1"/>
+    </row>
+    <row r="523">
+      <c r="H523" s="1"/>
+      <c r="I523" s="1"/>
+      <c r="J523" s="1"/>
+    </row>
+    <row r="524">
+      <c r="H524" s="1"/>
+      <c r="I524" s="1"/>
+      <c r="J524" s="1"/>
+    </row>
+    <row r="525">
+      <c r="H525" s="1"/>
+      <c r="I525" s="1"/>
+      <c r="J525" s="1"/>
+    </row>
+    <row r="526">
+      <c r="H526" s="1"/>
+      <c r="I526" s="1"/>
+      <c r="J526" s="1"/>
+    </row>
+    <row r="527">
+      <c r="H527" s="1"/>
+      <c r="I527" s="1"/>
+      <c r="J527" s="1"/>
+    </row>
+    <row r="528">
+      <c r="H528" s="1"/>
+      <c r="I528" s="1"/>
+      <c r="J528" s="1"/>
+    </row>
+    <row r="529">
+      <c r="H529" s="1"/>
+      <c r="I529" s="1"/>
+      <c r="J529" s="1"/>
+    </row>
+    <row r="530">
+      <c r="H530" s="1"/>
+      <c r="I530" s="1"/>
+      <c r="J530" s="1"/>
+    </row>
+    <row r="531">
+      <c r="H531" s="1"/>
+      <c r="I531" s="1"/>
+      <c r="J531" s="1"/>
+    </row>
+    <row r="532">
+      <c r="H532" s="1"/>
+      <c r="I532" s="1"/>
+      <c r="J532" s="1"/>
+    </row>
+    <row r="533">
+      <c r="H533" s="1"/>
+      <c r="I533" s="1"/>
+      <c r="J533" s="1"/>
+    </row>
+    <row r="534">
+      <c r="H534" s="1"/>
+      <c r="I534" s="1"/>
+      <c r="J534" s="1"/>
+    </row>
+    <row r="535">
+      <c r="H535" s="1"/>
+      <c r="I535" s="1"/>
+      <c r="J535" s="1"/>
+    </row>
+    <row r="536">
+      <c r="H536" s="1"/>
+      <c r="I536" s="1"/>
+      <c r="J536" s="1"/>
+    </row>
+    <row r="537">
+      <c r="H537" s="1"/>
+      <c r="I537" s="1"/>
+      <c r="J537" s="1"/>
+    </row>
+    <row r="538">
+      <c r="H538" s="1"/>
+      <c r="I538" s="1"/>
+      <c r="J538" s="1"/>
+    </row>
+    <row r="539">
+      <c r="H539" s="1"/>
+      <c r="I539" s="1"/>
+      <c r="J539" s="1"/>
+    </row>
+    <row r="540">
+      <c r="H540" s="1"/>
+      <c r="I540" s="1"/>
+      <c r="J540" s="1"/>
+    </row>
+    <row r="541">
+      <c r="H541" s="1"/>
+      <c r="I541" s="1"/>
+      <c r="J541" s="1"/>
+    </row>
+    <row r="542">
+      <c r="H542" s="1"/>
+      <c r="I542" s="1"/>
+      <c r="J542" s="1"/>
+    </row>
+    <row r="543">
+      <c r="H543" s="1"/>
+      <c r="I543" s="1"/>
+      <c r="J543" s="1"/>
+    </row>
+    <row r="544">
+      <c r="H544" s="1"/>
+      <c r="I544" s="1"/>
+      <c r="J544" s="1"/>
+    </row>
+    <row r="545">
+      <c r="H545" s="1"/>
+      <c r="I545" s="1"/>
+      <c r="J545" s="1"/>
+    </row>
+    <row r="546">
+      <c r="H546" s="1"/>
+      <c r="I546" s="1"/>
+      <c r="J546" s="1"/>
+    </row>
+    <row r="547">
+      <c r="H547" s="1"/>
+      <c r="I547" s="1"/>
+      <c r="J547" s="1"/>
+    </row>
+    <row r="548">
+      <c r="H548" s="1"/>
+      <c r="I548" s="1"/>
+      <c r="J548" s="1"/>
+    </row>
+    <row r="549">
+      <c r="H549" s="1"/>
+      <c r="I549" s="1"/>
+      <c r="J549" s="1"/>
+    </row>
+    <row r="550">
+      <c r="H550" s="1"/>
+      <c r="I550" s="1"/>
+      <c r="J550" s="1"/>
+    </row>
+    <row r="551">
+      <c r="H551" s="1"/>
+      <c r="I551" s="1"/>
+      <c r="J551" s="1"/>
+    </row>
+    <row r="552">
+      <c r="H552" s="1"/>
+      <c r="I552" s="1"/>
+      <c r="J552" s="1"/>
+    </row>
+    <row r="553">
+      <c r="H553" s="1"/>
+      <c r="I553" s="1"/>
+      <c r="J553" s="1"/>
+    </row>
+    <row r="554">
+      <c r="H554" s="1"/>
+      <c r="I554" s="1"/>
+      <c r="J554" s="1"/>
+    </row>
+    <row r="555">
+      <c r="H555" s="1"/>
+      <c r="I555" s="1"/>
+      <c r="J555" s="1"/>
+    </row>
+    <row r="556">
+      <c r="H556" s="1"/>
+      <c r="I556" s="1"/>
+      <c r="J556" s="1"/>
+    </row>
+    <row r="557">
+      <c r="H557" s="1"/>
+      <c r="I557" s="1"/>
+      <c r="J557" s="1"/>
+    </row>
+    <row r="558">
+      <c r="H558" s="1"/>
+      <c r="I558" s="1"/>
+      <c r="J558" s="1"/>
+    </row>
+    <row r="559">
+      <c r="H559" s="1"/>
+      <c r="I559" s="1"/>
+      <c r="J559" s="1"/>
+    </row>
+    <row r="560">
+      <c r="H560" s="1"/>
+      <c r="I560" s="1"/>
+      <c r="J560" s="1"/>
+    </row>
+    <row r="561">
+      <c r="H561" s="1"/>
+      <c r="I561" s="1"/>
+      <c r="J561" s="1"/>
+    </row>
+    <row r="562">
+      <c r="H562" s="1"/>
+      <c r="I562" s="1"/>
+      <c r="J562" s="1"/>
+    </row>
+    <row r="563">
+      <c r="H563" s="1"/>
+      <c r="I563" s="1"/>
+      <c r="J563" s="1"/>
+    </row>
+    <row r="564">
+      <c r="H564" s="1"/>
+      <c r="I564" s="1"/>
+      <c r="J564" s="1"/>
+    </row>
+    <row r="565">
+      <c r="H565" s="1"/>
+      <c r="I565" s="1"/>
+      <c r="J565" s="1"/>
+    </row>
+    <row r="566">
+      <c r="H566" s="1"/>
+      <c r="I566" s="1"/>
+      <c r="J566" s="1"/>
+    </row>
+    <row r="567">
+      <c r="H567" s="1"/>
+      <c r="I567" s="1"/>
+      <c r="J567" s="1"/>
+    </row>
+    <row r="568">
+      <c r="H568" s="1"/>
+      <c r="I568" s="1"/>
+      <c r="J568" s="1"/>
+    </row>
+    <row r="569">
+      <c r="H569" s="1"/>
+      <c r="I569" s="1"/>
+      <c r="J569" s="1"/>
+    </row>
+    <row r="570">
+      <c r="H570" s="1"/>
+      <c r="I570" s="1"/>
+      <c r="J570" s="1"/>
+    </row>
+    <row r="571">
+      <c r="H571" s="1"/>
+      <c r="I571" s="1"/>
+      <c r="J571" s="1"/>
+    </row>
+    <row r="572">
+      <c r="H572" s="1"/>
+      <c r="I572" s="1"/>
+      <c r="J572" s="1"/>
+    </row>
+    <row r="573">
+      <c r="H573" s="1"/>
+      <c r="I573" s="1"/>
+      <c r="J573" s="1"/>
+    </row>
+    <row r="574">
+      <c r="H574" s="1"/>
+      <c r="I574" s="1"/>
+      <c r="J574" s="1"/>
+    </row>
+    <row r="575">
+      <c r="H575" s="1"/>
+      <c r="I575" s="1"/>
+      <c r="J575" s="1"/>
+    </row>
+    <row r="576">
+      <c r="H576" s="1"/>
+      <c r="I576" s="1"/>
+      <c r="J576" s="1"/>
+    </row>
+    <row r="577">
+      <c r="H577" s="1"/>
+      <c r="I577" s="1"/>
+      <c r="J577" s="1"/>
+    </row>
+    <row r="578">
+      <c r="H578" s="1"/>
+      <c r="I578" s="1"/>
+      <c r="J578" s="1"/>
+    </row>
+    <row r="579">
+      <c r="H579" s="1"/>
+      <c r="I579" s="1"/>
+      <c r="J579" s="1"/>
+    </row>
+    <row r="580">
+      <c r="H580" s="1"/>
+      <c r="I580" s="1"/>
+      <c r="J580" s="1"/>
+    </row>
+    <row r="581">
+      <c r="H581" s="1"/>
+      <c r="I581" s="1"/>
+      <c r="J581" s="1"/>
+    </row>
+    <row r="582">
+      <c r="H582" s="1"/>
+      <c r="I582" s="1"/>
+      <c r="J582" s="1"/>
+    </row>
+    <row r="583">
+      <c r="H583" s="1"/>
+      <c r="I583" s="1"/>
+      <c r="J583" s="1"/>
+    </row>
+    <row r="584">
+      <c r="H584" s="1"/>
+      <c r="I584" s="1"/>
+      <c r="J584" s="1"/>
+    </row>
+    <row r="585">
+      <c r="H585" s="1"/>
+      <c r="I585" s="1"/>
+      <c r="J585" s="1"/>
+    </row>
+    <row r="586">
+      <c r="H586" s="1"/>
+      <c r="I586" s="1"/>
+      <c r="J586" s="1"/>
+    </row>
+    <row r="587">
+      <c r="H587" s="1"/>
+      <c r="I587" s="1"/>
+      <c r="J587" s="1"/>
+    </row>
+    <row r="588">
+      <c r="H588" s="1"/>
+      <c r="I588" s="1"/>
+      <c r="J588" s="1"/>
+    </row>
+    <row r="589">
+      <c r="H589" s="1"/>
+      <c r="I589" s="1"/>
+      <c r="J589" s="1"/>
+    </row>
+    <row r="590">
+      <c r="H590" s="1"/>
+      <c r="I590" s="1"/>
+      <c r="J590" s="1"/>
+    </row>
+    <row r="591">
+      <c r="H591" s="1"/>
+      <c r="I591" s="1"/>
+      <c r="J591" s="1"/>
+    </row>
+    <row r="592">
+      <c r="H592" s="1"/>
+      <c r="I592" s="1"/>
+      <c r="J592" s="1"/>
+    </row>
+    <row r="593">
+      <c r="H593" s="1"/>
+      <c r="I593" s="1"/>
+      <c r="J593" s="1"/>
+    </row>
+    <row r="594">
+      <c r="H594" s="1"/>
+      <c r="I594" s="1"/>
+      <c r="J594" s="1"/>
+    </row>
+    <row r="595">
+      <c r="H595" s="1"/>
+      <c r="I595" s="1"/>
+      <c r="J595" s="1"/>
+    </row>
+    <row r="596">
+      <c r="H596" s="1"/>
+      <c r="I596" s="1"/>
+      <c r="J596" s="1"/>
+    </row>
+    <row r="597">
+      <c r="H597" s="1"/>
+      <c r="I597" s="1"/>
+      <c r="J597" s="1"/>
+    </row>
+    <row r="598">
+      <c r="H598" s="1"/>
+      <c r="I598" s="1"/>
+      <c r="J598" s="1"/>
+    </row>
+    <row r="599">
+      <c r="H599" s="1"/>
+      <c r="I599" s="1"/>
+      <c r="J599" s="1"/>
+    </row>
+    <row r="600">
+      <c r="H600" s="1"/>
+      <c r="I600" s="1"/>
+      <c r="J600" s="1"/>
+    </row>
+    <row r="601">
+      <c r="H601" s="1"/>
+      <c r="I601" s="1"/>
+      <c r="J601" s="1"/>
+    </row>
+    <row r="602">
+      <c r="H602" s="1"/>
+      <c r="I602" s="1"/>
+      <c r="J602" s="1"/>
+    </row>
+    <row r="603">
+      <c r="H603" s="1"/>
+      <c r="I603" s="1"/>
+      <c r="J603" s="1"/>
+    </row>
+    <row r="604">
+      <c r="H604" s="1"/>
+      <c r="I604" s="1"/>
+      <c r="J604" s="1"/>
+    </row>
+    <row r="605">
+      <c r="H605" s="1"/>
+      <c r="I605" s="1"/>
+      <c r="J605" s="1"/>
+    </row>
+    <row r="606">
+      <c r="H606" s="1"/>
+      <c r="I606" s="1"/>
+      <c r="J606" s="1"/>
+    </row>
+    <row r="607">
+      <c r="H607" s="1"/>
+      <c r="I607" s="1"/>
+      <c r="J607" s="1"/>
+    </row>
+    <row r="608">
+      <c r="H608" s="1"/>
+      <c r="I608" s="1"/>
+      <c r="J608" s="1"/>
+    </row>
+    <row r="609">
+      <c r="H609" s="1"/>
+      <c r="I609" s="1"/>
+      <c r="J609" s="1"/>
+    </row>
+    <row r="610">
+      <c r="H610" s="1"/>
+      <c r="I610" s="1"/>
+      <c r="J610" s="1"/>
+    </row>
+    <row r="611">
+      <c r="H611" s="1"/>
+      <c r="I611" s="1"/>
+      <c r="J611" s="1"/>
+    </row>
+    <row r="612">
+      <c r="H612" s="1"/>
+      <c r="I612" s="1"/>
+      <c r="J612" s="1"/>
+    </row>
+    <row r="613">
+      <c r="H613" s="1"/>
+      <c r="I613" s="1"/>
+      <c r="J613" s="1"/>
+    </row>
+    <row r="614">
+      <c r="H614" s="1"/>
+      <c r="I614" s="1"/>
+      <c r="J614" s="1"/>
+    </row>
+    <row r="615">
+      <c r="H615" s="1"/>
+      <c r="I615" s="1"/>
+      <c r="J615" s="1"/>
+    </row>
+    <row r="616">
+      <c r="H616" s="1"/>
+      <c r="I616" s="1"/>
+      <c r="J616" s="1"/>
+    </row>
+    <row r="617">
+      <c r="H617" s="1"/>
+      <c r="I617" s="1"/>
+      <c r="J617" s="1"/>
+    </row>
+    <row r="618">
+      <c r="H618" s="1"/>
+      <c r="I618" s="1"/>
+      <c r="J618" s="1"/>
+    </row>
+    <row r="619">
+      <c r="H619" s="1"/>
+      <c r="I619" s="1"/>
+      <c r="J619" s="1"/>
+    </row>
+    <row r="620">
+      <c r="H620" s="1"/>
+      <c r="I620" s="1"/>
+      <c r="J620" s="1"/>
+    </row>
+    <row r="621">
+      <c r="H621" s="1"/>
+      <c r="I621" s="1"/>
+      <c r="J621" s="1"/>
+    </row>
+    <row r="622">
+      <c r="H622" s="1"/>
+      <c r="I622" s="1"/>
+      <c r="J622" s="1"/>
+    </row>
+    <row r="623">
+      <c r="H623" s="1"/>
+      <c r="I623" s="1"/>
+      <c r="J623" s="1"/>
+    </row>
+    <row r="624">
+      <c r="H624" s="1"/>
+      <c r="I624" s="1"/>
+      <c r="J624" s="1"/>
+    </row>
+    <row r="625">
+      <c r="H625" s="1"/>
+      <c r="I625" s="1"/>
+      <c r="J625" s="1"/>
+    </row>
+    <row r="626">
+      <c r="H626" s="1"/>
+      <c r="I626" s="1"/>
+      <c r="J626" s="1"/>
+    </row>
+    <row r="627">
+      <c r="H627" s="1"/>
+      <c r="I627" s="1"/>
+      <c r="J627" s="1"/>
+    </row>
+    <row r="628">
+      <c r="H628" s="1"/>
+      <c r="I628" s="1"/>
+      <c r="J628" s="1"/>
+    </row>
+    <row r="629">
+      <c r="H629" s="1"/>
+      <c r="I629" s="1"/>
+      <c r="J629" s="1"/>
+    </row>
+    <row r="630">
+      <c r="H630" s="1"/>
+      <c r="I630" s="1"/>
+      <c r="J630" s="1"/>
+    </row>
+    <row r="631">
+      <c r="H631" s="1"/>
+      <c r="I631" s="1"/>
+      <c r="J631" s="1"/>
+    </row>
+    <row r="632">
+      <c r="H632" s="1"/>
+      <c r="I632" s="1"/>
+      <c r="J632" s="1"/>
+    </row>
+    <row r="633">
+      <c r="H633" s="1"/>
+      <c r="I633" s="1"/>
+      <c r="J633" s="1"/>
+    </row>
+    <row r="634">
+      <c r="H634" s="1"/>
+      <c r="I634" s="1"/>
+      <c r="J634" s="1"/>
+    </row>
+    <row r="635">
+      <c r="H635" s="1"/>
+      <c r="I635" s="1"/>
+      <c r="J635" s="1"/>
+    </row>
+    <row r="636">
+      <c r="H636" s="1"/>
+      <c r="I636" s="1"/>
+      <c r="J636" s="1"/>
+    </row>
+    <row r="637">
+      <c r="H637" s="1"/>
+      <c r="I637" s="1"/>
+      <c r="J637" s="1"/>
+    </row>
+    <row r="638">
+      <c r="H638" s="1"/>
+      <c r="I638" s="1"/>
+      <c r="J638" s="1"/>
+    </row>
+    <row r="639">
+      <c r="H639" s="1"/>
+      <c r="I639" s="1"/>
+      <c r="J639" s="1"/>
+    </row>
+    <row r="640">
+      <c r="H640" s="1"/>
+      <c r="I640" s="1"/>
+      <c r="J640" s="1"/>
+    </row>
+    <row r="641">
+      <c r="H641" s="1"/>
+      <c r="I641" s="1"/>
+      <c r="J641" s="1"/>
+    </row>
+    <row r="642">
+      <c r="H642" s="1"/>
+      <c r="I642" s="1"/>
+      <c r="J642" s="1"/>
+    </row>
+    <row r="643">
+      <c r="H643" s="1"/>
+      <c r="I643" s="1"/>
+      <c r="J643" s="1"/>
+    </row>
+    <row r="644">
+      <c r="H644" s="1"/>
+      <c r="I644" s="1"/>
+      <c r="J644" s="1"/>
+    </row>
+    <row r="645">
+      <c r="H645" s="1"/>
+      <c r="I645" s="1"/>
+      <c r="J645" s="1"/>
+    </row>
+    <row r="646">
+      <c r="H646" s="1"/>
+      <c r="I646" s="1"/>
+      <c r="J646" s="1"/>
+    </row>
+    <row r="647">
+      <c r="H647" s="1"/>
+      <c r="I647" s="1"/>
+      <c r="J647" s="1"/>
+    </row>
+    <row r="648">
+      <c r="H648" s="1"/>
+      <c r="I648" s="1"/>
+      <c r="J648" s="1"/>
+    </row>
+    <row r="649">
+      <c r="H649" s="1"/>
+      <c r="I649" s="1"/>
+      <c r="J649" s="1"/>
+    </row>
+    <row r="650">
+      <c r="H650" s="1"/>
+      <c r="I650" s="1"/>
+      <c r="J650" s="1"/>
+    </row>
+    <row r="651">
+      <c r="H651" s="1"/>
+      <c r="I651" s="1"/>
+      <c r="J651" s="1"/>
+    </row>
+    <row r="652">
+      <c r="H652" s="1"/>
+      <c r="I652" s="1"/>
+      <c r="J652" s="1"/>
+    </row>
+    <row r="653">
+      <c r="H653" s="1"/>
+      <c r="I653" s="1"/>
+      <c r="J653" s="1"/>
+    </row>
+    <row r="654">
+      <c r="H654" s="1"/>
+      <c r="I654" s="1"/>
+      <c r="J654" s="1"/>
+    </row>
+    <row r="655">
+      <c r="H655" s="1"/>
+      <c r="I655" s="1"/>
+      <c r="J655" s="1"/>
+    </row>
+    <row r="656">
+      <c r="H656" s="1"/>
+      <c r="I656" s="1"/>
+      <c r="J656" s="1"/>
+    </row>
+    <row r="657">
+      <c r="H657" s="1"/>
+      <c r="I657" s="1"/>
+      <c r="J657" s="1"/>
+    </row>
+    <row r="658">
+      <c r="H658" s="1"/>
+      <c r="I658" s="1"/>
+      <c r="J658" s="1"/>
+    </row>
+    <row r="659">
+      <c r="H659" s="1"/>
+      <c r="I659" s="1"/>
+      <c r="J659" s="1"/>
+    </row>
+    <row r="660">
+      <c r="H660" s="1"/>
+      <c r="I660" s="1"/>
+      <c r="J660" s="1"/>
+    </row>
+    <row r="661">
+      <c r="H661" s="1"/>
+      <c r="I661" s="1"/>
+      <c r="J661" s="1"/>
+    </row>
+    <row r="662">
+      <c r="H662" s="1"/>
+      <c r="I662" s="1"/>
+      <c r="J662" s="1"/>
+    </row>
+    <row r="663">
+      <c r="H663" s="1"/>
+      <c r="I663" s="1"/>
+      <c r="J663" s="1"/>
+    </row>
+    <row r="664">
+      <c r="H664" s="1"/>
+      <c r="I664" s="1"/>
+      <c r="J664" s="1"/>
+    </row>
+    <row r="665">
+      <c r="H665" s="1"/>
+      <c r="I665" s="1"/>
+      <c r="J665" s="1"/>
+    </row>
+    <row r="666">
+      <c r="H666" s="1"/>
+      <c r="I666" s="1"/>
+      <c r="J666" s="1"/>
+    </row>
+    <row r="667">
+      <c r="H667" s="1"/>
+      <c r="I667" s="1"/>
+      <c r="J667" s="1"/>
+    </row>
+    <row r="668">
+      <c r="H668" s="1"/>
+      <c r="I668" s="1"/>
+      <c r="J668" s="1"/>
+    </row>
+    <row r="669">
+      <c r="H669" s="1"/>
+      <c r="I669" s="1"/>
+      <c r="J669" s="1"/>
+    </row>
+    <row r="670">
+      <c r="H670" s="1"/>
+      <c r="I670" s="1"/>
+      <c r="J670" s="1"/>
+    </row>
+    <row r="671">
+      <c r="H671" s="1"/>
+      <c r="I671" s="1"/>
+      <c r="J671" s="1"/>
+    </row>
+    <row r="672">
+      <c r="H672" s="1"/>
+      <c r="I672" s="1"/>
+      <c r="J672" s="1"/>
+    </row>
+    <row r="673">
+      <c r="H673" s="1"/>
+      <c r="I673" s="1"/>
+      <c r="J673" s="1"/>
+    </row>
+    <row r="674">
+      <c r="H674" s="1"/>
+      <c r="I674" s="1"/>
+      <c r="J674" s="1"/>
+    </row>
+    <row r="675">
+      <c r="H675" s="1"/>
+      <c r="I675" s="1"/>
+      <c r="J675" s="1"/>
+    </row>
+    <row r="676">
+      <c r="H676" s="1"/>
+      <c r="I676" s="1"/>
+      <c r="J676" s="1"/>
+    </row>
+    <row r="677">
+      <c r="H677" s="1"/>
+      <c r="I677" s="1"/>
+      <c r="J677" s="1"/>
+    </row>
+    <row r="678">
+      <c r="H678" s="1"/>
+      <c r="I678" s="1"/>
+      <c r="J678" s="1"/>
+    </row>
+    <row r="679">
+      <c r="H679" s="1"/>
+      <c r="I679" s="1"/>
+      <c r="J679" s="1"/>
+    </row>
+    <row r="680">
+      <c r="H680" s="1"/>
+      <c r="I680" s="1"/>
+      <c r="J680" s="1"/>
+    </row>
+    <row r="681">
+      <c r="H681" s="1"/>
+      <c r="I681" s="1"/>
+      <c r="J681" s="1"/>
+    </row>
+    <row r="682">
+      <c r="H682" s="1"/>
+      <c r="I682" s="1"/>
+      <c r="J682" s="1"/>
+    </row>
+    <row r="683">
+      <c r="H683" s="1"/>
+      <c r="I683" s="1"/>
+      <c r="J683" s="1"/>
+    </row>
+    <row r="684">
+      <c r="H684" s="1"/>
+      <c r="I684" s="1"/>
+      <c r="J684" s="1"/>
+    </row>
+    <row r="685">
+      <c r="H685" s="1"/>
+      <c r="I685" s="1"/>
+      <c r="J685" s="1"/>
+    </row>
+    <row r="686">
+      <c r="H686" s="1"/>
+      <c r="I686" s="1"/>
+      <c r="J686" s="1"/>
+    </row>
+    <row r="687">
+      <c r="H687" s="1"/>
+      <c r="I687" s="1"/>
+      <c r="J687" s="1"/>
+    </row>
+    <row r="688">
+      <c r="H688" s="1"/>
+      <c r="I688" s="1"/>
+      <c r="J688" s="1"/>
+    </row>
+    <row r="689">
+      <c r="H689" s="1"/>
+      <c r="I689" s="1"/>
+      <c r="J689" s="1"/>
+    </row>
+    <row r="690">
+      <c r="H690" s="1"/>
+      <c r="I690" s="1"/>
+      <c r="J690" s="1"/>
+    </row>
+    <row r="691">
+      <c r="H691" s="1"/>
+      <c r="I691" s="1"/>
+      <c r="J691" s="1"/>
+    </row>
+    <row r="692">
+      <c r="H692" s="1"/>
+      <c r="I692" s="1"/>
+      <c r="J692" s="1"/>
+    </row>
+    <row r="693">
+      <c r="H693" s="1"/>
+      <c r="I693" s="1"/>
+      <c r="J693" s="1"/>
+    </row>
+    <row r="694">
+      <c r="H694" s="1"/>
+      <c r="I694" s="1"/>
+      <c r="J694" s="1"/>
+    </row>
+    <row r="695">
+      <c r="H695" s="1"/>
+      <c r="I695" s="1"/>
+      <c r="J695" s="1"/>
+    </row>
+    <row r="696">
+      <c r="H696" s="1"/>
+      <c r="I696" s="1"/>
+      <c r="J696" s="1"/>
+    </row>
+    <row r="697">
+      <c r="H697" s="1"/>
+      <c r="I697" s="1"/>
+      <c r="J697" s="1"/>
+    </row>
+    <row r="698">
+      <c r="H698" s="1"/>
+      <c r="I698" s="1"/>
+      <c r="J698" s="1"/>
+    </row>
+    <row r="699">
+      <c r="H699" s="1"/>
+      <c r="I699" s="1"/>
+      <c r="J699" s="1"/>
+    </row>
+    <row r="700">
+      <c r="H700" s="1"/>
+      <c r="I700" s="1"/>
+      <c r="J700" s="1"/>
+    </row>
+    <row r="701">
+      <c r="H701" s="1"/>
+      <c r="I701" s="1"/>
+      <c r="J701" s="1"/>
+    </row>
+    <row r="702">
+      <c r="H702" s="1"/>
+      <c r="I702" s="1"/>
+      <c r="J702" s="1"/>
+    </row>
+    <row r="703">
+      <c r="H703" s="1"/>
+      <c r="I703" s="1"/>
+      <c r="J703" s="1"/>
+    </row>
+    <row r="704">
+      <c r="H704" s="1"/>
+      <c r="I704" s="1"/>
+      <c r="J704" s="1"/>
+    </row>
+    <row r="705">
+      <c r="H705" s="1"/>
+      <c r="I705" s="1"/>
+      <c r="J705" s="1"/>
+    </row>
+    <row r="706">
+      <c r="H706" s="1"/>
+      <c r="I706" s="1"/>
+      <c r="J706" s="1"/>
+    </row>
+    <row r="707">
+      <c r="H707" s="1"/>
+      <c r="I707" s="1"/>
+      <c r="J707" s="1"/>
+    </row>
+    <row r="708">
+      <c r="H708" s="1"/>
+      <c r="I708" s="1"/>
+      <c r="J708" s="1"/>
+    </row>
+    <row r="709">
+      <c r="H709" s="1"/>
+      <c r="I709" s="1"/>
+      <c r="J709" s="1"/>
+    </row>
+    <row r="710">
+      <c r="H710" s="1"/>
+      <c r="I710" s="1"/>
+      <c r="J710" s="1"/>
+    </row>
+    <row r="711">
+      <c r="H711" s="1"/>
+      <c r="I711" s="1"/>
+      <c r="J711" s="1"/>
+    </row>
+    <row r="712">
+      <c r="H712" s="1"/>
+      <c r="I712" s="1"/>
+      <c r="J712" s="1"/>
+    </row>
+    <row r="713">
+      <c r="H713" s="1"/>
+      <c r="I713" s="1"/>
+      <c r="J713" s="1"/>
+    </row>
+    <row r="714">
+      <c r="H714" s="1"/>
+      <c r="I714" s="1"/>
+      <c r="J714" s="1"/>
+    </row>
+    <row r="715">
+      <c r="H715" s="1"/>
+      <c r="I715" s="1"/>
+      <c r="J715" s="1"/>
+    </row>
+    <row r="716">
+      <c r="H716" s="1"/>
+      <c r="I716" s="1"/>
+      <c r="J716" s="1"/>
+    </row>
+    <row r="717">
+      <c r="H717" s="1"/>
+      <c r="I717" s="1"/>
+      <c r="J717" s="1"/>
+    </row>
+    <row r="718">
+      <c r="H718" s="1"/>
+      <c r="I718" s="1"/>
+      <c r="J718" s="1"/>
+    </row>
+    <row r="719">
+      <c r="H719" s="1"/>
+      <c r="I719" s="1"/>
+      <c r="J719" s="1"/>
+    </row>
+    <row r="720">
+      <c r="H720" s="1"/>
+      <c r="I720" s="1"/>
+      <c r="J720" s="1"/>
+    </row>
+    <row r="721">
+      <c r="H721" s="1"/>
+      <c r="I721" s="1"/>
+      <c r="J721" s="1"/>
+    </row>
+    <row r="722">
+      <c r="H722" s="1"/>
+      <c r="I722" s="1"/>
+      <c r="J722" s="1"/>
+    </row>
+    <row r="723">
+      <c r="H723" s="1"/>
+      <c r="I723" s="1"/>
+      <c r="J723" s="1"/>
+    </row>
+    <row r="724">
+      <c r="H724" s="1"/>
+      <c r="I724" s="1"/>
+      <c r="J724" s="1"/>
+    </row>
+    <row r="725">
+      <c r="H725" s="1"/>
+      <c r="I725" s="1"/>
+      <c r="J725" s="1"/>
+    </row>
+    <row r="726">
+      <c r="H726" s="1"/>
+      <c r="I726" s="1"/>
+      <c r="J726" s="1"/>
+    </row>
+    <row r="727">
+      <c r="H727" s="1"/>
+      <c r="I727" s="1"/>
+      <c r="J727" s="1"/>
+    </row>
+    <row r="728">
+      <c r="H728" s="1"/>
+      <c r="I728" s="1"/>
+      <c r="J728" s="1"/>
+    </row>
+    <row r="729">
+      <c r="H729" s="1"/>
+      <c r="I729" s="1"/>
+      <c r="J729" s="1"/>
+    </row>
+    <row r="730">
+      <c r="H730" s="1"/>
+      <c r="I730" s="1"/>
+      <c r="J730" s="1"/>
+    </row>
+    <row r="731">
+      <c r="H731" s="1"/>
+      <c r="I731" s="1"/>
+      <c r="J731" s="1"/>
+    </row>
+    <row r="732">
+      <c r="H732" s="1"/>
+      <c r="I732" s="1"/>
+      <c r="J732" s="1"/>
+    </row>
+    <row r="733">
+      <c r="H733" s="1"/>
+      <c r="I733" s="1"/>
+      <c r="J733" s="1"/>
+    </row>
+    <row r="734">
+      <c r="H734" s="1"/>
+      <c r="I734" s="1"/>
+      <c r="J734" s="1"/>
+    </row>
+    <row r="735">
+      <c r="H735" s="1"/>
+      <c r="I735" s="1"/>
+      <c r="J735" s="1"/>
+    </row>
+    <row r="736">
+      <c r="H736" s="1"/>
+      <c r="I736" s="1"/>
+      <c r="J736" s="1"/>
+    </row>
+    <row r="737">
+      <c r="H737" s="1"/>
+      <c r="I737" s="1"/>
+      <c r="J737" s="1"/>
+    </row>
+    <row r="738">
+      <c r="H738" s="1"/>
+      <c r="I738" s="1"/>
+      <c r="J738" s="1"/>
+    </row>
+    <row r="739">
+      <c r="H739" s="1"/>
+      <c r="I739" s="1"/>
+      <c r="J739" s="1"/>
+    </row>
+    <row r="740">
+      <c r="H740" s="1"/>
+      <c r="I740" s="1"/>
+      <c r="J740" s="1"/>
+    </row>
+    <row r="741">
+      <c r="H741" s="1"/>
+      <c r="I741" s="1"/>
+      <c r="J741" s="1"/>
+    </row>
+    <row r="742">
+      <c r="H742" s="1"/>
+      <c r="I742" s="1"/>
+      <c r="J742" s="1"/>
+    </row>
+    <row r="743">
+      <c r="H743" s="1"/>
+      <c r="I743" s="1"/>
+      <c r="J743" s="1"/>
+    </row>
+    <row r="744">
+      <c r="H744" s="1"/>
+      <c r="I744" s="1"/>
+      <c r="J744" s="1"/>
+    </row>
+    <row r="745">
+      <c r="H745" s="1"/>
+      <c r="I745" s="1"/>
+      <c r="J745" s="1"/>
+    </row>
+    <row r="746">
+      <c r="H746" s="1"/>
+      <c r="I746" s="1"/>
+      <c r="J746" s="1"/>
+    </row>
+    <row r="747">
+      <c r="H747" s="1"/>
+      <c r="I747" s="1"/>
+      <c r="J747" s="1"/>
+    </row>
+    <row r="748">
+      <c r="H748" s="1"/>
+      <c r="I748" s="1"/>
+      <c r="J748" s="1"/>
+    </row>
+    <row r="749">
+      <c r="H749" s="1"/>
+      <c r="I749" s="1"/>
+      <c r="J749" s="1"/>
+    </row>
+    <row r="750">
+      <c r="H750" s="1"/>
+      <c r="I750" s="1"/>
+      <c r="J750" s="1"/>
+    </row>
+    <row r="751">
+      <c r="H751" s="1"/>
+      <c r="I751" s="1"/>
+      <c r="J751" s="1"/>
+    </row>
+    <row r="752">
+      <c r="H752" s="1"/>
+      <c r="I752" s="1"/>
+      <c r="J752" s="1"/>
+    </row>
+    <row r="753">
+      <c r="H753" s="1"/>
+      <c r="I753" s="1"/>
+      <c r="J753" s="1"/>
+    </row>
+    <row r="754">
+      <c r="H754" s="1"/>
+      <c r="I754" s="1"/>
+      <c r="J754" s="1"/>
+    </row>
+    <row r="755">
+      <c r="H755" s="1"/>
+      <c r="I755" s="1"/>
+      <c r="J755" s="1"/>
+    </row>
+    <row r="756">
+      <c r="H756" s="1"/>
+      <c r="I756" s="1"/>
+      <c r="J756" s="1"/>
+    </row>
+    <row r="757">
+      <c r="H757" s="1"/>
+      <c r="I757" s="1"/>
+      <c r="J757" s="1"/>
+    </row>
+    <row r="758">
+      <c r="H758" s="1"/>
+      <c r="I758" s="1"/>
+      <c r="J758" s="1"/>
+    </row>
+    <row r="759">
+      <c r="H759" s="1"/>
+      <c r="I759" s="1"/>
+      <c r="J759" s="1"/>
+    </row>
+    <row r="760">
+      <c r="H760" s="1"/>
+      <c r="I760" s="1"/>
+      <c r="J760" s="1"/>
+    </row>
+    <row r="761">
+      <c r="H761" s="1"/>
+      <c r="I761" s="1"/>
+      <c r="J761" s="1"/>
+    </row>
+    <row r="762">
+      <c r="H762" s="1"/>
+      <c r="I762" s="1"/>
+      <c r="J762" s="1"/>
+    </row>
+    <row r="763">
+      <c r="H763" s="1"/>
+      <c r="I763" s="1"/>
+      <c r="J763" s="1"/>
+    </row>
+    <row r="764">
+      <c r="H764" s="1"/>
+      <c r="I764" s="1"/>
+      <c r="J764" s="1"/>
+    </row>
+    <row r="765">
+      <c r="H765" s="1"/>
+      <c r="I765" s="1"/>
+      <c r="J765" s="1"/>
+    </row>
+    <row r="766">
+      <c r="H766" s="1"/>
+      <c r="I766" s="1"/>
+      <c r="J766" s="1"/>
+    </row>
+    <row r="767">
+      <c r="H767" s="1"/>
+      <c r="I767" s="1"/>
+      <c r="J767" s="1"/>
+    </row>
+    <row r="768">
+      <c r="H768" s="1"/>
+      <c r="I768" s="1"/>
+      <c r="J768" s="1"/>
+    </row>
+    <row r="769">
+      <c r="H769" s="1"/>
+      <c r="I769" s="1"/>
+      <c r="J769" s="1"/>
+    </row>
+    <row r="770">
+      <c r="H770" s="1"/>
+      <c r="I770" s="1"/>
+      <c r="J770" s="1"/>
+    </row>
+    <row r="771">
+      <c r="H771" s="1"/>
+      <c r="I771" s="1"/>
+      <c r="J771" s="1"/>
+    </row>
+    <row r="772">
+      <c r="H772" s="1"/>
+      <c r="I772" s="1"/>
+      <c r="J772" s="1"/>
+    </row>
+    <row r="773">
+      <c r="H773" s="1"/>
+      <c r="I773" s="1"/>
+      <c r="J773" s="1"/>
+    </row>
+    <row r="774">
+      <c r="H774" s="1"/>
+      <c r="I774" s="1"/>
+      <c r="J774" s="1"/>
+    </row>
+    <row r="775">
+      <c r="H775" s="1"/>
+      <c r="I775" s="1"/>
+      <c r="J775" s="1"/>
+    </row>
+    <row r="776">
+      <c r="H776" s="1"/>
+      <c r="I776" s="1"/>
+      <c r="J776" s="1"/>
+    </row>
+    <row r="777">
+      <c r="H777" s="1"/>
+      <c r="I777" s="1"/>
+      <c r="J777" s="1"/>
+    </row>
+    <row r="778">
+      <c r="H778" s="1"/>
+      <c r="I778" s="1"/>
+      <c r="J778" s="1"/>
+    </row>
+    <row r="779">
+      <c r="H779" s="1"/>
+      <c r="I779" s="1"/>
+      <c r="J779" s="1"/>
+    </row>
+    <row r="780">
+      <c r="H780" s="1"/>
+      <c r="I780" s="1"/>
+      <c r="J780" s="1"/>
+    </row>
+    <row r="781">
+      <c r="H781" s="1"/>
+      <c r="I781" s="1"/>
+      <c r="J781" s="1"/>
+    </row>
+    <row r="782">
+      <c r="H782" s="1"/>
+      <c r="I782" s="1"/>
+      <c r="J782" s="1"/>
+    </row>
+    <row r="783">
+      <c r="H783" s="1"/>
+      <c r="I783" s="1"/>
+      <c r="J783" s="1"/>
+    </row>
+    <row r="784">
+      <c r="H784" s="1"/>
+      <c r="I784" s="1"/>
+      <c r="J784" s="1"/>
+    </row>
+    <row r="785">
+      <c r="H785" s="1"/>
+      <c r="I785" s="1"/>
+      <c r="J785" s="1"/>
+    </row>
+    <row r="786">
+      <c r="H786" s="1"/>
+      <c r="I786" s="1"/>
+      <c r="J786" s="1"/>
+    </row>
+    <row r="787">
+      <c r="H787" s="1"/>
+      <c r="I787" s="1"/>
+      <c r="J787" s="1"/>
+    </row>
+    <row r="788">
+      <c r="H788" s="1"/>
+      <c r="I788" s="1"/>
+      <c r="J788" s="1"/>
+    </row>
+    <row r="789">
+      <c r="H789" s="1"/>
+      <c r="I789" s="1"/>
+      <c r="J789" s="1"/>
+    </row>
+    <row r="790">
+      <c r="H790" s="1"/>
+      <c r="I790" s="1"/>
+      <c r="J790" s="1"/>
+    </row>
+    <row r="791">
+      <c r="H791" s="1"/>
+      <c r="I791" s="1"/>
+      <c r="J791" s="1"/>
+    </row>
+    <row r="792">
+      <c r="H792" s="1"/>
+      <c r="I792" s="1"/>
+      <c r="J792" s="1"/>
+    </row>
+    <row r="793">
+      <c r="H793" s="1"/>
+      <c r="I793" s="1"/>
+      <c r="J793" s="1"/>
+    </row>
+    <row r="794">
+      <c r="H794" s="1"/>
+      <c r="I794" s="1"/>
+      <c r="J794" s="1"/>
+    </row>
+    <row r="795">
+      <c r="H795" s="1"/>
+      <c r="I795" s="1"/>
+      <c r="J795" s="1"/>
+    </row>
+    <row r="796">
+      <c r="H796" s="1"/>
+      <c r="I796" s="1"/>
+      <c r="J796" s="1"/>
+    </row>
+    <row r="797">
+      <c r="H797" s="1"/>
+      <c r="I797" s="1"/>
+      <c r="J797" s="1"/>
+    </row>
+    <row r="798">
+      <c r="H798" s="1"/>
+      <c r="I798" s="1"/>
+      <c r="J798" s="1"/>
+    </row>
+    <row r="799">
+      <c r="H799" s="1"/>
+      <c r="I799" s="1"/>
+      <c r="J799" s="1"/>
+    </row>
+    <row r="800">
+      <c r="H800" s="1"/>
+      <c r="I800" s="1"/>
+      <c r="J800" s="1"/>
+    </row>
+    <row r="801">
+      <c r="H801" s="1"/>
+      <c r="I801" s="1"/>
+      <c r="J801" s="1"/>
+    </row>
+    <row r="802">
+      <c r="H802" s="1"/>
+      <c r="I802" s="1"/>
+      <c r="J802" s="1"/>
+    </row>
+    <row r="803">
+      <c r="H803" s="1"/>
+      <c r="I803" s="1"/>
+      <c r="J803" s="1"/>
+    </row>
+    <row r="804">
+      <c r="H804" s="1"/>
+      <c r="I804" s="1"/>
+      <c r="J804" s="1"/>
+    </row>
+    <row r="805">
+      <c r="H805" s="1"/>
+      <c r="I805" s="1"/>
+      <c r="J805" s="1"/>
+    </row>
+    <row r="806">
+      <c r="H806" s="1"/>
+      <c r="I806" s="1"/>
+      <c r="J806" s="1"/>
+    </row>
+    <row r="807">
+      <c r="H807" s="1"/>
+      <c r="I807" s="1"/>
+      <c r="J807" s="1"/>
+    </row>
+    <row r="808">
+      <c r="H808" s="1"/>
+      <c r="I808" s="1"/>
+      <c r="J808" s="1"/>
+    </row>
+    <row r="809">
+      <c r="H809" s="1"/>
+      <c r="I809" s="1"/>
+      <c r="J809" s="1"/>
+    </row>
+    <row r="810">
+      <c r="H810" s="1"/>
+      <c r="I810" s="1"/>
+      <c r="J810" s="1"/>
+    </row>
+    <row r="811">
+      <c r="H811" s="1"/>
+      <c r="I811" s="1"/>
+      <c r="J811" s="1"/>
+    </row>
+    <row r="812">
+      <c r="H812" s="1"/>
+      <c r="I812" s="1"/>
+      <c r="J812" s="1"/>
+    </row>
+    <row r="813">
+      <c r="H813" s="1"/>
+      <c r="I813" s="1"/>
+      <c r="J813" s="1"/>
+    </row>
+    <row r="814">
+      <c r="H814" s="1"/>
+      <c r="I814" s="1"/>
+      <c r="J814" s="1"/>
+    </row>
+    <row r="815">
+      <c r="H815" s="1"/>
+      <c r="I815" s="1"/>
+      <c r="J815" s="1"/>
+    </row>
+    <row r="816">
+      <c r="H816" s="1"/>
+      <c r="I816" s="1"/>
+      <c r="J816" s="1"/>
+    </row>
+    <row r="817">
+      <c r="H817" s="1"/>
+      <c r="I817" s="1"/>
+      <c r="J817" s="1"/>
+    </row>
+    <row r="818">
+      <c r="H818" s="1"/>
+      <c r="I818" s="1"/>
+      <c r="J818" s="1"/>
+    </row>
+    <row r="819">
+      <c r="H819" s="1"/>
+      <c r="I819" s="1"/>
+      <c r="J819" s="1"/>
+    </row>
+    <row r="820">
+      <c r="H820" s="1"/>
+      <c r="I820" s="1"/>
+      <c r="J820" s="1"/>
+    </row>
+    <row r="821">
+      <c r="H821" s="1"/>
+      <c r="I821" s="1"/>
+      <c r="J821" s="1"/>
+    </row>
+    <row r="822">
+      <c r="H822" s="1"/>
+      <c r="I822" s="1"/>
+      <c r="J822" s="1"/>
+    </row>
+    <row r="823">
+      <c r="H823" s="1"/>
+      <c r="I823" s="1"/>
+      <c r="J823" s="1"/>
+    </row>
+    <row r="824">
+      <c r="H824" s="1"/>
+      <c r="I824" s="1"/>
+      <c r="J824" s="1"/>
+    </row>
+    <row r="825">
+      <c r="H825" s="1"/>
+      <c r="I825" s="1"/>
+      <c r="J825" s="1"/>
+    </row>
+    <row r="826">
+      <c r="H826" s="1"/>
+      <c r="I826" s="1"/>
+      <c r="J826" s="1"/>
+    </row>
+    <row r="827">
+      <c r="H827" s="1"/>
+      <c r="I827" s="1"/>
+      <c r="J827" s="1"/>
+    </row>
+    <row r="828">
+      <c r="H828" s="1"/>
+      <c r="I828" s="1"/>
+      <c r="J828" s="1"/>
+    </row>
+    <row r="829">
+      <c r="H829" s="1"/>
+      <c r="I829" s="1"/>
+      <c r="J829" s="1"/>
+    </row>
+    <row r="830">
+      <c r="H830" s="1"/>
+      <c r="I830" s="1"/>
+      <c r="J830" s="1"/>
+    </row>
+    <row r="831">
+      <c r="H831" s="1"/>
+      <c r="I831" s="1"/>
+      <c r="J831" s="1"/>
+    </row>
+    <row r="832">
+      <c r="H832" s="1"/>
+      <c r="I832" s="1"/>
+      <c r="J832" s="1"/>
+    </row>
+    <row r="833">
+      <c r="H833" s="1"/>
+      <c r="I833" s="1"/>
+      <c r="J833" s="1"/>
+    </row>
+    <row r="834">
+      <c r="H834" s="1"/>
+      <c r="I834" s="1"/>
+      <c r="J834" s="1"/>
+    </row>
+    <row r="835">
+      <c r="H835" s="1"/>
+      <c r="I835" s="1"/>
+      <c r="J835" s="1"/>
+    </row>
+    <row r="836">
+      <c r="H836" s="1"/>
+      <c r="I836" s="1"/>
+      <c r="J836" s="1"/>
+    </row>
+    <row r="837">
+      <c r="H837" s="1"/>
+      <c r="I837" s="1"/>
+      <c r="J837" s="1"/>
+    </row>
+    <row r="838">
+      <c r="H838" s="1"/>
+      <c r="I838" s="1"/>
+      <c r="J838" s="1"/>
+    </row>
+    <row r="839">
+      <c r="H839" s="1"/>
+      <c r="I839" s="1"/>
+      <c r="J839" s="1"/>
+    </row>
+    <row r="840">
+      <c r="H840" s="1"/>
+      <c r="I840" s="1"/>
+      <c r="J840" s="1"/>
+    </row>
+    <row r="841">
+      <c r="H841" s="1"/>
+      <c r="I841" s="1"/>
+      <c r="J841" s="1"/>
+    </row>
+    <row r="842">
+      <c r="H842" s="1"/>
+      <c r="I842" s="1"/>
+      <c r="J842" s="1"/>
+    </row>
+    <row r="843">
+      <c r="H843" s="1"/>
+      <c r="I843" s="1"/>
+      <c r="J843" s="1"/>
+    </row>
+    <row r="844">
+      <c r="H844" s="1"/>
+      <c r="I844" s="1"/>
+      <c r="J844" s="1"/>
+    </row>
+    <row r="845">
+      <c r="H845" s="1"/>
+      <c r="I845" s="1"/>
+      <c r="J845" s="1"/>
+    </row>
+    <row r="846">
+      <c r="H846" s="1"/>
+      <c r="I846" s="1"/>
+      <c r="J846" s="1"/>
+    </row>
+    <row r="847">
+      <c r="H847" s="1"/>
+      <c r="I847" s="1"/>
+      <c r="J847" s="1"/>
+    </row>
+    <row r="848">
+      <c r="H848" s="1"/>
+      <c r="I848" s="1"/>
+      <c r="J848" s="1"/>
+    </row>
+    <row r="849">
+      <c r="H849" s="1"/>
+      <c r="I849" s="1"/>
+      <c r="J849" s="1"/>
+    </row>
+    <row r="850">
+      <c r="H850" s="1"/>
+      <c r="I850" s="1"/>
+      <c r="J850" s="1"/>
+    </row>
+    <row r="851">
+      <c r="H851" s="1"/>
+      <c r="I851" s="1"/>
+      <c r="J851" s="1"/>
+    </row>
+    <row r="852">
+      <c r="H852" s="1"/>
+      <c r="I852" s="1"/>
+      <c r="J852" s="1"/>
+    </row>
+    <row r="853">
+      <c r="H853" s="1"/>
+      <c r="I853" s="1"/>
+      <c r="J853" s="1"/>
+    </row>
+    <row r="854">
+      <c r="H854" s="1"/>
+      <c r="I854" s="1"/>
+      <c r="J854" s="1"/>
+    </row>
+    <row r="855">
+      <c r="H855" s="1"/>
+      <c r="I855" s="1"/>
+      <c r="J855" s="1"/>
+    </row>
+    <row r="856">
+      <c r="H856" s="1"/>
+      <c r="I856" s="1"/>
+      <c r="J856" s="1"/>
+    </row>
+    <row r="857">
+      <c r="H857" s="1"/>
+      <c r="I857" s="1"/>
+      <c r="J857" s="1"/>
+    </row>
+    <row r="858">
+      <c r="H858" s="1"/>
+      <c r="I858" s="1"/>
+      <c r="J858" s="1"/>
+    </row>
+    <row r="859">
+      <c r="H859" s="1"/>
+      <c r="I859" s="1"/>
+      <c r="J859" s="1"/>
+    </row>
+    <row r="860">
+      <c r="H860" s="1"/>
+      <c r="I860" s="1"/>
+      <c r="J860" s="1"/>
+    </row>
+    <row r="861">
+      <c r="H861" s="1"/>
+      <c r="I861" s="1"/>
+      <c r="J861" s="1"/>
+    </row>
+    <row r="862">
+      <c r="H862" s="1"/>
+      <c r="I862" s="1"/>
+      <c r="J862" s="1"/>
+    </row>
+    <row r="863">
+      <c r="H863" s="1"/>
+      <c r="I863" s="1"/>
+      <c r="J863" s="1"/>
+    </row>
+    <row r="864">
+      <c r="H864" s="1"/>
+      <c r="I864" s="1"/>
+      <c r="J864" s="1"/>
+    </row>
+    <row r="865">
+      <c r="H865" s="1"/>
+      <c r="I865" s="1"/>
+      <c r="J865" s="1"/>
+    </row>
+    <row r="866">
+      <c r="H866" s="1"/>
+      <c r="I866" s="1"/>
+      <c r="J866" s="1"/>
+    </row>
+    <row r="867">
+      <c r="H867" s="1"/>
+      <c r="I867" s="1"/>
+      <c r="J867" s="1"/>
+    </row>
+    <row r="868">
+      <c r="H868" s="1"/>
+      <c r="I868" s="1"/>
+      <c r="J868" s="1"/>
+    </row>
+    <row r="869">
+      <c r="H869" s="1"/>
+      <c r="I869" s="1"/>
+      <c r="J869" s="1"/>
+    </row>
+    <row r="870">
+      <c r="H870" s="1"/>
+      <c r="I870" s="1"/>
+      <c r="J870" s="1"/>
+    </row>
+    <row r="871">
+      <c r="H871" s="1"/>
+      <c r="I871" s="1"/>
+      <c r="J871" s="1"/>
+    </row>
+    <row r="872">
+      <c r="H872" s="1"/>
+      <c r="I872" s="1"/>
+      <c r="J872" s="1"/>
+    </row>
+    <row r="873">
+      <c r="H873" s="1"/>
+      <c r="I873" s="1"/>
+      <c r="J873" s="1"/>
+    </row>
+    <row r="874">
+      <c r="H874" s="1"/>
+      <c r="I874" s="1"/>
+      <c r="J874" s="1"/>
+    </row>
+    <row r="875">
+      <c r="H875" s="1"/>
+      <c r="I875" s="1"/>
+      <c r="J875" s="1"/>
+    </row>
+    <row r="876">
+      <c r="H876" s="1"/>
+      <c r="I876" s="1"/>
+      <c r="J876" s="1"/>
+    </row>
+    <row r="877">
+      <c r="H877" s="1"/>
+      <c r="I877" s="1"/>
+      <c r="J877" s="1"/>
+    </row>
+    <row r="878">
+      <c r="H878" s="1"/>
+      <c r="I878" s="1"/>
+      <c r="J878" s="1"/>
+    </row>
+    <row r="879">
+      <c r="H879" s="1"/>
+      <c r="I879" s="1"/>
+      <c r="J879" s="1"/>
+    </row>
+    <row r="880">
+      <c r="H880" s="1"/>
+      <c r="I880" s="1"/>
+      <c r="J880" s="1"/>
+    </row>
+    <row r="881">
+      <c r="H881" s="1"/>
+      <c r="I881" s="1"/>
+      <c r="J881" s="1"/>
+    </row>
+    <row r="882">
+      <c r="H882" s="1"/>
+      <c r="I882" s="1"/>
+      <c r="J882" s="1"/>
+    </row>
+    <row r="883">
+      <c r="H883" s="1"/>
+      <c r="I883" s="1"/>
+      <c r="J883" s="1"/>
+    </row>
+    <row r="884">
+      <c r="H884" s="1"/>
+      <c r="I884" s="1"/>
+      <c r="J884" s="1"/>
+    </row>
+    <row r="885">
+      <c r="H885" s="1"/>
+      <c r="I885" s="1"/>
+      <c r="J885" s="1"/>
+    </row>
+    <row r="886">
+      <c r="H886" s="1"/>
+      <c r="I886" s="1"/>
+      <c r="J886" s="1"/>
+    </row>
+    <row r="887">
+      <c r="H887" s="1"/>
+      <c r="I887" s="1"/>
+      <c r="J887" s="1"/>
+    </row>
+    <row r="888">
+      <c r="H888" s="1"/>
+      <c r="I888" s="1"/>
+      <c r="J888" s="1"/>
+    </row>
+    <row r="889">
+      <c r="H889" s="1"/>
+      <c r="I889" s="1"/>
+      <c r="J889" s="1"/>
+    </row>
+    <row r="890">
+      <c r="H890" s="1"/>
+      <c r="I890" s="1"/>
+      <c r="J890" s="1"/>
+    </row>
+    <row r="891">
+      <c r="H891" s="1"/>
+      <c r="I891" s="1"/>
+      <c r="J891" s="1"/>
+    </row>
+    <row r="892">
+      <c r="H892" s="1"/>
+      <c r="I892" s="1"/>
+      <c r="J892" s="1"/>
+    </row>
+    <row r="893">
+      <c r="H893" s="1"/>
+      <c r="I893" s="1"/>
+      <c r="J893" s="1"/>
+    </row>
+    <row r="894">
+      <c r="H894" s="1"/>
+      <c r="I894" s="1"/>
+      <c r="J894" s="1"/>
+    </row>
+    <row r="895">
+      <c r="H895" s="1"/>
+      <c r="I895" s="1"/>
+      <c r="J895" s="1"/>
+    </row>
+    <row r="896">
+      <c r="H896" s="1"/>
+      <c r="I896" s="1"/>
+      <c r="J896" s="1"/>
+    </row>
+    <row r="897">
+      <c r="H897" s="1"/>
+      <c r="I897" s="1"/>
+      <c r="J897" s="1"/>
+    </row>
+    <row r="898">
+      <c r="H898" s="1"/>
+      <c r="I898" s="1"/>
+      <c r="J898" s="1"/>
+    </row>
+    <row r="899">
+      <c r="H899" s="1"/>
+      <c r="I899" s="1"/>
+      <c r="J899" s="1"/>
+    </row>
+    <row r="900">
+      <c r="H900" s="1"/>
+      <c r="I900" s="1"/>
+      <c r="J900" s="1"/>
+    </row>
+    <row r="901">
+      <c r="H901" s="1"/>
+      <c r="I901" s="1"/>
+      <c r="J901" s="1"/>
+    </row>
+    <row r="902">
+      <c r="H902" s="1"/>
+      <c r="I902" s="1"/>
+      <c r="J902" s="1"/>
+    </row>
+    <row r="903">
+      <c r="H903" s="1"/>
+      <c r="I903" s="1"/>
+      <c r="J903" s="1"/>
+    </row>
+    <row r="904">
+      <c r="H904" s="1"/>
+      <c r="I904" s="1"/>
+      <c r="J904" s="1"/>
+    </row>
+    <row r="905">
+      <c r="H905" s="1"/>
+      <c r="I905" s="1"/>
+      <c r="J905" s="1"/>
+    </row>
+    <row r="906">
+      <c r="H906" s="1"/>
+      <c r="I906" s="1"/>
+      <c r="J906" s="1"/>
+    </row>
+    <row r="907">
+      <c r="H907" s="1"/>
+      <c r="I907" s="1"/>
+      <c r="J907" s="1"/>
+    </row>
+    <row r="908">
+      <c r="H908" s="1"/>
+      <c r="I908" s="1"/>
+      <c r="J908" s="1"/>
+    </row>
+    <row r="909">
+      <c r="H909" s="1"/>
+      <c r="I909" s="1"/>
+      <c r="J909" s="1"/>
+    </row>
+    <row r="910">
+      <c r="H910" s="1"/>
+      <c r="I910" s="1"/>
+      <c r="J910" s="1"/>
+    </row>
+    <row r="911">
+      <c r="H911" s="1"/>
+      <c r="I911" s="1"/>
+      <c r="J911" s="1"/>
+    </row>
+    <row r="912">
+      <c r="H912" s="1"/>
+      <c r="I912" s="1"/>
+      <c r="J912" s="1"/>
+    </row>
+    <row r="913">
+      <c r="H913" s="1"/>
+      <c r="I913" s="1"/>
+      <c r="J913" s="1"/>
+    </row>
+    <row r="914">
+      <c r="H914" s="1"/>
+      <c r="I914" s="1"/>
+      <c r="J914" s="1"/>
+    </row>
+    <row r="915">
+      <c r="H915" s="1"/>
+      <c r="I915" s="1"/>
+      <c r="J915" s="1"/>
+    </row>
+    <row r="916">
+      <c r="H916" s="1"/>
+      <c r="I916" s="1"/>
+      <c r="J916" s="1"/>
+    </row>
+    <row r="917">
+      <c r="H917" s="1"/>
+      <c r="I917" s="1"/>
+      <c r="J917" s="1"/>
+    </row>
+    <row r="918">
+      <c r="H918" s="1"/>
+      <c r="I918" s="1"/>
+      <c r="J918" s="1"/>
+    </row>
+    <row r="919">
+      <c r="H919" s="1"/>
+      <c r="I919" s="1"/>
+      <c r="J919" s="1"/>
+    </row>
+    <row r="920">
+      <c r="H920" s="1"/>
+      <c r="I920" s="1"/>
+      <c r="J920" s="1"/>
+    </row>
+    <row r="921">
+      <c r="H921" s="1"/>
+      <c r="I921" s="1"/>
+      <c r="J921" s="1"/>
+    </row>
+    <row r="922">
+      <c r="H922" s="1"/>
+      <c r="I922" s="1"/>
+      <c r="J922" s="1"/>
+    </row>
+    <row r="923">
+      <c r="H923" s="1"/>
+      <c r="I923" s="1"/>
+      <c r="J923" s="1"/>
+    </row>
+    <row r="924">
+      <c r="H924" s="1"/>
+      <c r="I924" s="1"/>
+      <c r="J924" s="1"/>
+    </row>
+    <row r="925">
+      <c r="H925" s="1"/>
+      <c r="I925" s="1"/>
+      <c r="J925" s="1"/>
+    </row>
+    <row r="926">
+      <c r="H926" s="1"/>
+      <c r="I926" s="1"/>
+      <c r="J926" s="1"/>
+    </row>
+    <row r="927">
+      <c r="H927" s="1"/>
+      <c r="I927" s="1"/>
+      <c r="J927" s="1"/>
+    </row>
+    <row r="928">
+      <c r="H928" s="1"/>
+      <c r="I928" s="1"/>
+      <c r="J928" s="1"/>
+    </row>
+    <row r="929">
+      <c r="H929" s="1"/>
+      <c r="I929" s="1"/>
+      <c r="J929" s="1"/>
+    </row>
+    <row r="930">
+      <c r="H930" s="1"/>
+      <c r="I930" s="1"/>
+      <c r="J930" s="1"/>
+    </row>
+    <row r="931">
+      <c r="H931" s="1"/>
+      <c r="I931" s="1"/>
+      <c r="J931" s="1"/>
+    </row>
+    <row r="932">
+      <c r="H932" s="1"/>
+      <c r="I932" s="1"/>
+      <c r="J932" s="1"/>
+    </row>
+    <row r="933">
+      <c r="H933" s="1"/>
+      <c r="I933" s="1"/>
+      <c r="J933" s="1"/>
+    </row>
+    <row r="934">
+      <c r="H934" s="1"/>
+      <c r="I934" s="1"/>
+      <c r="J934" s="1"/>
+    </row>
+    <row r="935">
+      <c r="H935" s="1"/>
+      <c r="I935" s="1"/>
+      <c r="J935" s="1"/>
+    </row>
+    <row r="936">
+      <c r="H936" s="1"/>
+      <c r="I936" s="1"/>
+      <c r="J936" s="1"/>
+    </row>
+    <row r="937">
+      <c r="H937" s="1"/>
+      <c r="I937" s="1"/>
+      <c r="J937" s="1"/>
+    </row>
+    <row r="938">
+      <c r="H938" s="1"/>
+      <c r="I938" s="1"/>
+      <c r="J938" s="1"/>
+    </row>
+    <row r="939">
+      <c r="H939" s="1"/>
+      <c r="I939" s="1"/>
+      <c r="J939" s="1"/>
+    </row>
+    <row r="940">
+      <c r="H940" s="1"/>
+      <c r="I940" s="1"/>
+      <c r="J940" s="1"/>
+    </row>
+    <row r="941">
+      <c r="H941" s="1"/>
+      <c r="I941" s="1"/>
+      <c r="J941" s="1"/>
+    </row>
+    <row r="942">
+      <c r="H942" s="1"/>
+      <c r="I942" s="1"/>
+      <c r="J942" s="1"/>
+    </row>
+    <row r="943">
+      <c r="H943" s="1"/>
+      <c r="I943" s="1"/>
+      <c r="J943" s="1"/>
+    </row>
+    <row r="944">
+      <c r="H944" s="1"/>
+      <c r="I944" s="1"/>
+      <c r="J944" s="1"/>
+    </row>
+    <row r="945">
+      <c r="H945" s="1"/>
+      <c r="I945" s="1"/>
+      <c r="J945" s="1"/>
+    </row>
+    <row r="946">
+      <c r="H946" s="1"/>
+      <c r="I946" s="1"/>
+      <c r="J946" s="1"/>
+    </row>
+    <row r="947">
+      <c r="H947" s="1"/>
+      <c r="I947" s="1"/>
+      <c r="J947" s="1"/>
+    </row>
+    <row r="948">
+      <c r="H948" s="1"/>
+      <c r="I948" s="1"/>
+      <c r="J948" s="1"/>
+    </row>
+    <row r="949">
+      <c r="H949" s="1"/>
+      <c r="I949" s="1"/>
+      <c r="J949" s="1"/>
+    </row>
+    <row r="950">
+      <c r="H950" s="1"/>
+      <c r="I950" s="1"/>
+      <c r="J950" s="1"/>
+    </row>
+    <row r="951">
+      <c r="H951" s="1"/>
+      <c r="I951" s="1"/>
+      <c r="J951" s="1"/>
+    </row>
+    <row r="952">
+      <c r="H952" s="1"/>
+      <c r="I952" s="1"/>
+      <c r="J952" s="1"/>
+    </row>
+    <row r="953">
+      <c r="H953" s="1"/>
+      <c r="I953" s="1"/>
+      <c r="J953" s="1"/>
+    </row>
+    <row r="954">
+      <c r="H954" s="1"/>
+      <c r="I954" s="1"/>
+      <c r="J954" s="1"/>
+    </row>
+    <row r="955">
+      <c r="H955" s="1"/>
+      <c r="I955" s="1"/>
+      <c r="J955" s="1"/>
+    </row>
+    <row r="956">
+      <c r="H956" s="1"/>
+      <c r="I956" s="1"/>
+      <c r="J956" s="1"/>
+    </row>
+    <row r="957">
+      <c r="H957" s="1"/>
+      <c r="I957" s="1"/>
+      <c r="J957" s="1"/>
+    </row>
+    <row r="958">
+      <c r="H958" s="1"/>
+      <c r="I958" s="1"/>
+      <c r="J958" s="1"/>
+    </row>
+    <row r="959">
+      <c r="H959" s="1"/>
+      <c r="I959" s="1"/>
+      <c r="J959" s="1"/>
+    </row>
+    <row r="960">
+      <c r="H960" s="1"/>
+      <c r="I960" s="1"/>
+      <c r="J960" s="1"/>
+    </row>
+    <row r="961">
+      <c r="H961" s="1"/>
+      <c r="I961" s="1"/>
+      <c r="J961" s="1"/>
+    </row>
+    <row r="962">
+      <c r="H962" s="1"/>
+      <c r="I962" s="1"/>
+      <c r="J962" s="1"/>
+    </row>
+    <row r="963">
+      <c r="H963" s="1"/>
+      <c r="I963" s="1"/>
+      <c r="J963" s="1"/>
+    </row>
+    <row r="964">
+      <c r="H964" s="1"/>
+      <c r="I964" s="1"/>
+      <c r="J964" s="1"/>
+    </row>
+    <row r="965">
+      <c r="H965" s="1"/>
+      <c r="I965" s="1"/>
+      <c r="J965" s="1"/>
+    </row>
+    <row r="966">
+      <c r="H966" s="1"/>
+      <c r="I966" s="1"/>
+      <c r="J966" s="1"/>
+    </row>
+    <row r="967">
+      <c r="H967" s="1"/>
+      <c r="I967" s="1"/>
+      <c r="J967" s="1"/>
+    </row>
+    <row r="968">
+      <c r="H968" s="1"/>
+      <c r="I968" s="1"/>
+      <c r="J968" s="1"/>
+    </row>
+    <row r="969">
+      <c r="H969" s="1"/>
+      <c r="I969" s="1"/>
+      <c r="J969" s="1"/>
+    </row>
+    <row r="970">
+      <c r="H970" s="1"/>
+      <c r="I970" s="1"/>
+      <c r="J970" s="1"/>
+    </row>
+    <row r="971">
+      <c r="H971" s="1"/>
+      <c r="I971" s="1"/>
+      <c r="J971" s="1"/>
+    </row>
+    <row r="972">
+      <c r="H972" s="1"/>
+      <c r="I972" s="1"/>
+      <c r="J972" s="1"/>
+    </row>
+    <row r="973">
+      <c r="H973" s="1"/>
+      <c r="I973" s="1"/>
+      <c r="J973" s="1"/>
+    </row>
+    <row r="974">
+      <c r="H974" s="1"/>
+      <c r="I974" s="1"/>
+      <c r="J974" s="1"/>
+    </row>
+    <row r="975">
+      <c r="H975" s="1"/>
+      <c r="I975" s="1"/>
+      <c r="J975" s="1"/>
+    </row>
+    <row r="976">
+      <c r="H976" s="1"/>
+      <c r="I976" s="1"/>
+      <c r="J976" s="1"/>
+    </row>
+    <row r="977">
+      <c r="H977" s="1"/>
+      <c r="I977" s="1"/>
+      <c r="J977" s="1"/>
+    </row>
+    <row r="978">
+      <c r="H978" s="1"/>
+      <c r="I978" s="1"/>
+      <c r="J978" s="1"/>
+    </row>
+    <row r="979">
+      <c r="H979" s="1"/>
+      <c r="I979" s="1"/>
+      <c r="J979" s="1"/>
+    </row>
+    <row r="980">
+      <c r="H980" s="1"/>
+      <c r="I980" s="1"/>
+      <c r="J980" s="1"/>
+    </row>
+    <row r="981">
+      <c r="H981" s="1"/>
+      <c r="I981" s="1"/>
+      <c r="J981" s="1"/>
+    </row>
+    <row r="982">
+      <c r="H982" s="1"/>
+      <c r="I982" s="1"/>
+      <c r="J982" s="1"/>
+    </row>
+    <row r="983">
+      <c r="H983" s="1"/>
+      <c r="I983" s="1"/>
+      <c r="J983" s="1"/>
+    </row>
+    <row r="984">
+      <c r="H984" s="1"/>
+      <c r="I984" s="1"/>
+      <c r="J984" s="1"/>
+    </row>
+    <row r="985">
+      <c r="H985" s="1"/>
+      <c r="I985" s="1"/>
+      <c r="J985" s="1"/>
+    </row>
+    <row r="986">
+      <c r="H986" s="1"/>
+      <c r="I986" s="1"/>
+      <c r="J986" s="1"/>
+    </row>
+    <row r="987">
+      <c r="H987" s="1"/>
+      <c r="I987" s="1"/>
+      <c r="J987" s="1"/>
+    </row>
+    <row r="988">
+      <c r="H988" s="1"/>
+      <c r="I988" s="1"/>
+      <c r="J988" s="1"/>
+    </row>
+    <row r="989">
+      <c r="H989" s="1"/>
+      <c r="I989" s="1"/>
+      <c r="J989" s="1"/>
+    </row>
+    <row r="990">
+      <c r="H990" s="1"/>
+      <c r="I990" s="1"/>
+      <c r="J990" s="1"/>
+    </row>
+    <row r="991">
+      <c r="H991" s="1"/>
+      <c r="I991" s="1"/>
+      <c r="J991" s="1"/>
+    </row>
+    <row r="992">
+      <c r="H992" s="1"/>
+      <c r="I992" s="1"/>
+      <c r="J992" s="1"/>
+    </row>
+    <row r="993">
+      <c r="H993" s="1"/>
+      <c r="I993" s="1"/>
+      <c r="J993" s="1"/>
+    </row>
+    <row r="994">
+      <c r="H994" s="1"/>
+      <c r="I994" s="1"/>
+      <c r="J994" s="1"/>
+    </row>
+    <row r="995">
+      <c r="H995" s="1"/>
+      <c r="I995" s="1"/>
+      <c r="J995" s="1"/>
+    </row>
+    <row r="996">
+      <c r="H996" s="1"/>
+      <c r="I996" s="1"/>
+      <c r="J996" s="1"/>
+    </row>
+    <row r="997">
+      <c r="H997" s="1"/>
+      <c r="I997" s="1"/>
+      <c r="J997" s="1"/>
+    </row>
+    <row r="998">
+      <c r="H998" s="1"/>
+      <c r="I998" s="1"/>
+      <c r="J998" s="1"/>
+    </row>
+    <row r="999">
+      <c r="H999" s="1"/>
+      <c r="I999" s="1"/>
+      <c r="J999" s="1"/>
+    </row>
+    <row r="1000">
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/CS1C_Agile_1.xlsx
+++ b/CS1C_Agile_1.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\CS1C\Agile\Angle_1\Agile-1_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Features</t>
   </si>
@@ -93,52 +101,84 @@
   <si>
     <t>assist Josh with time implementation</t>
   </si>
+  <si>
+    <t>Standing Meeting 9/3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FF34A853"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF34A853"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFBBC04"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="6"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFBBC04"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,119 +186,115 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="4">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -448,36 +484,43 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="16.43"/>
-    <col customWidth="1" min="8" max="8" width="27.57"/>
-    <col customWidth="1" min="9" max="9" width="33.29"/>
-    <col customWidth="1" min="10" max="10" width="25.0"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2">
-      <c r="H2" s="1"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -523,15 +566,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="15"/>
       <c r="G5" s="16" t="s">
         <v>14</v>
       </c>
@@ -545,7 +588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
@@ -566,7 +609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
@@ -588,4967 +631,4967 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201">
+    <row r="201" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202">
+    <row r="202" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203">
+    <row r="203" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204">
+    <row r="204" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205">
+    <row r="205" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206">
+    <row r="206" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207">
+    <row r="207" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208">
+    <row r="208" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209">
+    <row r="209" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210">
+    <row r="210" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211">
+    <row r="211" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212">
+    <row r="212" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213">
+    <row r="213" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214">
+    <row r="214" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215">
+    <row r="215" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216">
+    <row r="216" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217">
+    <row r="217" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218">
+    <row r="218" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219">
+    <row r="219" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220">
+    <row r="220" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221">
+    <row r="221" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222">
+    <row r="222" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223">
+    <row r="223" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row r="224">
+    <row r="224" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row r="225">
+    <row r="225" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226">
+    <row r="226" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227">
+    <row r="227" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228">
+    <row r="228" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229">
+    <row r="229" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230">
+    <row r="230" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231">
+    <row r="231" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
     </row>
-    <row r="232">
+    <row r="232" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row r="233">
+    <row r="233" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row r="234">
+    <row r="234" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235">
+    <row r="235" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236">
+    <row r="236" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237">
+    <row r="237" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238">
+    <row r="238" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239">
+    <row r="239" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240">
+    <row r="240" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241">
+    <row r="241" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242">
+    <row r="242" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243">
+    <row r="243" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244">
+    <row r="244" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245">
+    <row r="245" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246">
+    <row r="246" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247">
+    <row r="247" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248">
+    <row r="248" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249">
+    <row r="249" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250">
+    <row r="250" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
     </row>
-    <row r="251">
+    <row r="251" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252">
+    <row r="252" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253">
+    <row r="253" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254">
+    <row r="254" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255">
+    <row r="255" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256">
+    <row r="256" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257">
+    <row r="257" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
     </row>
-    <row r="258">
+    <row r="258" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
     </row>
-    <row r="259">
+    <row r="259" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260">
+    <row r="260" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
     </row>
-    <row r="261">
+    <row r="261" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
     </row>
-    <row r="262">
+    <row r="262" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
     </row>
-    <row r="263">
+    <row r="263" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
     </row>
-    <row r="264">
+    <row r="264" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
     </row>
-    <row r="265">
+    <row r="265" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
     </row>
-    <row r="266">
+    <row r="266" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
     </row>
-    <row r="267">
+    <row r="267" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
     </row>
-    <row r="268">
+    <row r="268" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
     </row>
-    <row r="269">
+    <row r="269" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
     </row>
-    <row r="270">
+    <row r="270" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
     </row>
-    <row r="271">
+    <row r="271" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
     </row>
-    <row r="272">
+    <row r="272" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
     </row>
-    <row r="273">
+    <row r="273" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
     </row>
-    <row r="274">
+    <row r="274" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
     </row>
-    <row r="275">
+    <row r="275" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
     </row>
-    <row r="276">
+    <row r="276" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
     </row>
-    <row r="277">
+    <row r="277" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
     </row>
-    <row r="278">
+    <row r="278" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
     </row>
-    <row r="279">
+    <row r="279" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
     </row>
-    <row r="280">
+    <row r="280" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
     </row>
-    <row r="281">
+    <row r="281" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
     </row>
-    <row r="282">
+    <row r="282" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
     </row>
-    <row r="283">
+    <row r="283" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
     </row>
-    <row r="284">
+    <row r="284" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
     </row>
-    <row r="285">
+    <row r="285" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
     </row>
-    <row r="286">
+    <row r="286" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
     </row>
-    <row r="287">
+    <row r="287" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
     </row>
-    <row r="288">
+    <row r="288" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
     </row>
-    <row r="289">
+    <row r="289" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
     </row>
-    <row r="290">
+    <row r="290" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
     </row>
-    <row r="291">
+    <row r="291" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
     </row>
-    <row r="292">
+    <row r="292" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
     </row>
-    <row r="293">
+    <row r="293" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
     </row>
-    <row r="294">
+    <row r="294" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
     </row>
-    <row r="295">
+    <row r="295" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
     </row>
-    <row r="296">
+    <row r="296" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
     </row>
-    <row r="297">
+    <row r="297" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
     </row>
-    <row r="298">
+    <row r="298" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
     </row>
-    <row r="299">
+    <row r="299" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
     </row>
-    <row r="300">
+    <row r="300" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
     </row>
-    <row r="301">
+    <row r="301" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
     </row>
-    <row r="302">
+    <row r="302" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
     </row>
-    <row r="303">
+    <row r="303" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
     </row>
-    <row r="304">
+    <row r="304" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
     </row>
-    <row r="305">
+    <row r="305" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
     </row>
-    <row r="306">
+    <row r="306" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
     </row>
-    <row r="307">
+    <row r="307" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
     </row>
-    <row r="308">
+    <row r="308" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
     </row>
-    <row r="309">
+    <row r="309" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
     </row>
-    <row r="310">
+    <row r="310" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
     </row>
-    <row r="311">
+    <row r="311" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
     </row>
-    <row r="312">
+    <row r="312" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
     </row>
-    <row r="313">
+    <row r="313" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
     </row>
-    <row r="314">
+    <row r="314" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
     </row>
-    <row r="315">
+    <row r="315" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
     </row>
-    <row r="316">
+    <row r="316" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
     </row>
-    <row r="317">
+    <row r="317" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
     </row>
-    <row r="318">
+    <row r="318" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
     </row>
-    <row r="319">
+    <row r="319" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
     </row>
-    <row r="320">
+    <row r="320" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
     </row>
-    <row r="321">
+    <row r="321" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
     </row>
-    <row r="322">
+    <row r="322" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
     </row>
-    <row r="323">
+    <row r="323" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
     </row>
-    <row r="324">
+    <row r="324" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row r="325">
+    <row r="325" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
     </row>
-    <row r="326">
+    <row r="326" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
     </row>
-    <row r="327">
+    <row r="327" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
     </row>
-    <row r="328">
+    <row r="328" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
     </row>
-    <row r="329">
+    <row r="329" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
     </row>
-    <row r="330">
+    <row r="330" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
     </row>
-    <row r="331">
+    <row r="331" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
     </row>
-    <row r="332">
+    <row r="332" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
     </row>
-    <row r="333">
+    <row r="333" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
     </row>
-    <row r="334">
+    <row r="334" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
     </row>
-    <row r="335">
+    <row r="335" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
     </row>
-    <row r="336">
+    <row r="336" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
     </row>
-    <row r="337">
+    <row r="337" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
     </row>
-    <row r="338">
+    <row r="338" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
     </row>
-    <row r="339">
+    <row r="339" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
     </row>
-    <row r="340">
+    <row r="340" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
     </row>
-    <row r="341">
+    <row r="341" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
     </row>
-    <row r="342">
+    <row r="342" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
     </row>
-    <row r="343">
+    <row r="343" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
     </row>
-    <row r="344">
+    <row r="344" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
     </row>
-    <row r="345">
+    <row r="345" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
     </row>
-    <row r="346">
+    <row r="346" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
     </row>
-    <row r="347">
+    <row r="347" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
     </row>
-    <row r="348">
+    <row r="348" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
     </row>
-    <row r="349">
+    <row r="349" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
     </row>
-    <row r="350">
+    <row r="350" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
     </row>
-    <row r="351">
+    <row r="351" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
     </row>
-    <row r="352">
+    <row r="352" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row r="353">
+    <row r="353" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
     </row>
-    <row r="354">
+    <row r="354" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355">
+    <row r="355" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356">
+    <row r="356" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357">
+    <row r="357" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358">
+    <row r="358" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359">
+    <row r="359" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360">
+    <row r="360" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361">
+    <row r="361" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362">
+    <row r="362" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363">
+    <row r="363" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364">
+    <row r="364" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365">
+    <row r="365" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366">
+    <row r="366" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367">
+    <row r="367" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368">
+    <row r="368" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369">
+    <row r="369" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370">
+    <row r="370" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371">
+    <row r="371" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372">
+    <row r="372" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373">
+    <row r="373" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374">
+    <row r="374" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375">
+    <row r="375" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376">
+    <row r="376" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377">
+    <row r="377" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378">
+    <row r="378" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="379">
+    <row r="379" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
     </row>
-    <row r="380">
+    <row r="380" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
     </row>
-    <row r="381">
+    <row r="381" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
     </row>
-    <row r="382">
+    <row r="382" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
     </row>
-    <row r="383">
+    <row r="383" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
     </row>
-    <row r="384">
+    <row r="384" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
     </row>
-    <row r="385">
+    <row r="385" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
     </row>
-    <row r="386">
+    <row r="386" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row r="387">
+    <row r="387" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
     </row>
-    <row r="388">
+    <row r="388" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
     </row>
-    <row r="389">
+    <row r="389" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
     </row>
-    <row r="390">
+    <row r="390" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
     </row>
-    <row r="391">
+    <row r="391" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
     </row>
-    <row r="392">
+    <row r="392" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
     </row>
-    <row r="393">
+    <row r="393" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
     </row>
-    <row r="394">
+    <row r="394" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
     </row>
-    <row r="395">
+    <row r="395" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
     </row>
-    <row r="396">
+    <row r="396" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
     </row>
-    <row r="397">
+    <row r="397" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
     </row>
-    <row r="398">
+    <row r="398" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
     </row>
-    <row r="399">
+    <row r="399" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
     </row>
-    <row r="400">
+    <row r="400" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
     </row>
-    <row r="401">
+    <row r="401" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
     </row>
-    <row r="402">
+    <row r="402" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
     </row>
-    <row r="403">
+    <row r="403" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
     </row>
-    <row r="404">
+    <row r="404" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
     </row>
-    <row r="405">
+    <row r="405" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
     </row>
-    <row r="406">
+    <row r="406" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
     </row>
-    <row r="407">
+    <row r="407" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
     </row>
-    <row r="408">
+    <row r="408" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
     </row>
-    <row r="409">
+    <row r="409" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
     </row>
-    <row r="410">
+    <row r="410" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row r="411">
+    <row r="411" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
     </row>
-    <row r="412">
+    <row r="412" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
     </row>
-    <row r="413">
+    <row r="413" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
     </row>
-    <row r="414">
+    <row r="414" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
     </row>
-    <row r="415">
+    <row r="415" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
     </row>
-    <row r="416">
+    <row r="416" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
     </row>
-    <row r="417">
+    <row r="417" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
     </row>
-    <row r="418">
+    <row r="418" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
     </row>
-    <row r="419">
+    <row r="419" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
     </row>
-    <row r="420">
+    <row r="420" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
     </row>
-    <row r="421">
+    <row r="421" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
     </row>
-    <row r="422">
+    <row r="422" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
     </row>
-    <row r="423">
+    <row r="423" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
     </row>
-    <row r="424">
+    <row r="424" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
     </row>
-    <row r="425">
+    <row r="425" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
     </row>
-    <row r="426">
+    <row r="426" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
     </row>
-    <row r="427">
+    <row r="427" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
     </row>
-    <row r="428">
+    <row r="428" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
     </row>
-    <row r="429">
+    <row r="429" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
     </row>
-    <row r="430">
+    <row r="430" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
     </row>
-    <row r="431">
+    <row r="431" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
     </row>
-    <row r="432">
+    <row r="432" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
     </row>
-    <row r="433">
+    <row r="433" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
     </row>
-    <row r="434">
+    <row r="434" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H434" s="1"/>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
     </row>
-    <row r="435">
+    <row r="435" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
     </row>
-    <row r="436">
+    <row r="436" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H436" s="1"/>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
     </row>
-    <row r="437">
+    <row r="437" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
     </row>
-    <row r="438">
+    <row r="438" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
     </row>
-    <row r="439">
+    <row r="439" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
     </row>
-    <row r="440">
+    <row r="440" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
     </row>
-    <row r="441">
+    <row r="441" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
     </row>
-    <row r="442">
+    <row r="442" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
     </row>
-    <row r="443">
+    <row r="443" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
     </row>
-    <row r="444">
+    <row r="444" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
     </row>
-    <row r="445">
+    <row r="445" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
     </row>
-    <row r="446">
+    <row r="446" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
     </row>
-    <row r="447">
+    <row r="447" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
     </row>
-    <row r="448">
+    <row r="448" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H448" s="1"/>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
     </row>
-    <row r="449">
+    <row r="449" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H449" s="1"/>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
     </row>
-    <row r="450">
+    <row r="450" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H450" s="1"/>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
     </row>
-    <row r="451">
+    <row r="451" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H451" s="1"/>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
     </row>
-    <row r="452">
+    <row r="452" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H452" s="1"/>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
     </row>
-    <row r="453">
+    <row r="453" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
     </row>
-    <row r="454">
+    <row r="454" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
     </row>
-    <row r="455">
+    <row r="455" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H455" s="1"/>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
     </row>
-    <row r="456">
+    <row r="456" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H456" s="1"/>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
     </row>
-    <row r="457">
+    <row r="457" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
     </row>
-    <row r="458">
+    <row r="458" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
     </row>
-    <row r="459">
+    <row r="459" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
     </row>
-    <row r="460">
+    <row r="460" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
     </row>
-    <row r="461">
+    <row r="461" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H461" s="1"/>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
     </row>
-    <row r="462">
+    <row r="462" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
     </row>
-    <row r="463">
+    <row r="463" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
     </row>
-    <row r="464">
+    <row r="464" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H464" s="1"/>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
     </row>
-    <row r="465">
+    <row r="465" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
     </row>
-    <row r="466">
+    <row r="466" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
     </row>
-    <row r="467">
+    <row r="467" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
       <c r="J467" s="1"/>
     </row>
-    <row r="468">
+    <row r="468" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
     </row>
-    <row r="469">
+    <row r="469" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
     </row>
-    <row r="470">
+    <row r="470" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
     </row>
-    <row r="471">
+    <row r="471" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
       <c r="J471" s="1"/>
     </row>
-    <row r="472">
+    <row r="472" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
     </row>
-    <row r="473">
+    <row r="473" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
     </row>
-    <row r="474">
+    <row r="474" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
     </row>
-    <row r="475">
+    <row r="475" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
     </row>
-    <row r="476">
+    <row r="476" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
     </row>
-    <row r="477">
+    <row r="477" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
     </row>
-    <row r="478">
+    <row r="478" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
     </row>
-    <row r="479">
+    <row r="479" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
     </row>
-    <row r="480">
+    <row r="480" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
     </row>
-    <row r="481">
+    <row r="481" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
     </row>
-    <row r="482">
+    <row r="482" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
     </row>
-    <row r="483">
+    <row r="483" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
     </row>
-    <row r="484">
+    <row r="484" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
     </row>
-    <row r="485">
+    <row r="485" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
     </row>
-    <row r="486">
+    <row r="486" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
     </row>
-    <row r="487">
+    <row r="487" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
     </row>
-    <row r="488">
+    <row r="488" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
     </row>
-    <row r="489">
+    <row r="489" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
     </row>
-    <row r="490">
+    <row r="490" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
     </row>
-    <row r="491">
+    <row r="491" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
     </row>
-    <row r="492">
+    <row r="492" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H492" s="1"/>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
     </row>
-    <row r="493">
+    <row r="493" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
     </row>
-    <row r="494">
+    <row r="494" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H494" s="1"/>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
     </row>
-    <row r="495">
+    <row r="495" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
     </row>
-    <row r="496">
+    <row r="496" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
       <c r="J496" s="1"/>
     </row>
-    <row r="497">
+    <row r="497" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
       <c r="J497" s="1"/>
     </row>
-    <row r="498">
+    <row r="498" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
     </row>
-    <row r="499">
+    <row r="499" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
     </row>
-    <row r="500">
+    <row r="500" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
     </row>
-    <row r="501">
+    <row r="501" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
     </row>
-    <row r="502">
+    <row r="502" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
       <c r="J502" s="1"/>
     </row>
-    <row r="503">
+    <row r="503" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
       <c r="J503" s="1"/>
     </row>
-    <row r="504">
+    <row r="504" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
       <c r="J504" s="1"/>
     </row>
-    <row r="505">
+    <row r="505" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
     </row>
-    <row r="506">
+    <row r="506" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H506" s="1"/>
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
     </row>
-    <row r="507">
+    <row r="507" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H507" s="1"/>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
     </row>
-    <row r="508">
+    <row r="508" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H508" s="1"/>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
     </row>
-    <row r="509">
+    <row r="509" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H509" s="1"/>
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
     </row>
-    <row r="510">
+    <row r="510" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H510" s="1"/>
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
     </row>
-    <row r="511">
+    <row r="511" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H511" s="1"/>
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
     </row>
-    <row r="512">
+    <row r="512" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H512" s="1"/>
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
     </row>
-    <row r="513">
+    <row r="513" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H513" s="1"/>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
     </row>
-    <row r="514">
+    <row r="514" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H514" s="1"/>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
     </row>
-    <row r="515">
+    <row r="515" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H515" s="1"/>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
     </row>
-    <row r="516">
+    <row r="516" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H516" s="1"/>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
     </row>
-    <row r="517">
+    <row r="517" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H517" s="1"/>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
     </row>
-    <row r="518">
+    <row r="518" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H518" s="1"/>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
     </row>
-    <row r="519">
+    <row r="519" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
     </row>
-    <row r="520">
+    <row r="520" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H520" s="1"/>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
     </row>
-    <row r="521">
+    <row r="521" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
     </row>
-    <row r="522">
+    <row r="522" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H522" s="1"/>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
     </row>
-    <row r="523">
+    <row r="523" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H523" s="1"/>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
     </row>
-    <row r="524">
+    <row r="524" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
       <c r="J524" s="1"/>
     </row>
-    <row r="525">
+    <row r="525" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
     </row>
-    <row r="526">
+    <row r="526" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
     </row>
-    <row r="527">
+    <row r="527" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
       <c r="J527" s="1"/>
     </row>
-    <row r="528">
+    <row r="528" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
     </row>
-    <row r="529">
+    <row r="529" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
     </row>
-    <row r="530">
+    <row r="530" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
     </row>
-    <row r="531">
+    <row r="531" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
     </row>
-    <row r="532">
+    <row r="532" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
     </row>
-    <row r="533">
+    <row r="533" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
     </row>
-    <row r="534">
+    <row r="534" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
     </row>
-    <row r="535">
+    <row r="535" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H535" s="1"/>
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
     </row>
-    <row r="536">
+    <row r="536" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H536" s="1"/>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
     </row>
-    <row r="537">
+    <row r="537" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H537" s="1"/>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
     </row>
-    <row r="538">
+    <row r="538" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H538" s="1"/>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
     </row>
-    <row r="539">
+    <row r="539" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H539" s="1"/>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
     </row>
-    <row r="540">
+    <row r="540" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H540" s="1"/>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
     </row>
-    <row r="541">
+    <row r="541" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H541" s="1"/>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
     </row>
-    <row r="542">
+    <row r="542" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H542" s="1"/>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
     </row>
-    <row r="543">
+    <row r="543" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H543" s="1"/>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
     </row>
-    <row r="544">
+    <row r="544" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H544" s="1"/>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
     </row>
-    <row r="545">
+    <row r="545" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H545" s="1"/>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
     </row>
-    <row r="546">
+    <row r="546" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H546" s="1"/>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
     </row>
-    <row r="547">
+    <row r="547" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H547" s="1"/>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
     </row>
-    <row r="548">
+    <row r="548" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H548" s="1"/>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
     </row>
-    <row r="549">
+    <row r="549" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H549" s="1"/>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
     </row>
-    <row r="550">
+    <row r="550" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H550" s="1"/>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
     </row>
-    <row r="551">
+    <row r="551" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H551" s="1"/>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
     </row>
-    <row r="552">
+    <row r="552" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H552" s="1"/>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
     </row>
-    <row r="553">
+    <row r="553" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
     </row>
-    <row r="554">
+    <row r="554" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
     </row>
-    <row r="555">
+    <row r="555" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
     </row>
-    <row r="556">
+    <row r="556" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
       <c r="J556" s="1"/>
     </row>
-    <row r="557">
+    <row r="557" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
       <c r="J557" s="1"/>
     </row>
-    <row r="558">
+    <row r="558" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
     </row>
-    <row r="559">
+    <row r="559" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
     </row>
-    <row r="560">
+    <row r="560" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
     </row>
-    <row r="561">
+    <row r="561" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
     </row>
-    <row r="562">
+    <row r="562" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
       <c r="J562" s="1"/>
     </row>
-    <row r="563">
+    <row r="563" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
     </row>
-    <row r="564">
+    <row r="564" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H564" s="1"/>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
     </row>
-    <row r="565">
+    <row r="565" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H565" s="1"/>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
     </row>
-    <row r="566">
+    <row r="566" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H566" s="1"/>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
     </row>
-    <row r="567">
+    <row r="567" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H567" s="1"/>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
     </row>
-    <row r="568">
+    <row r="568" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H568" s="1"/>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
     </row>
-    <row r="569">
+    <row r="569" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H569" s="1"/>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
     </row>
-    <row r="570">
+    <row r="570" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H570" s="1"/>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
     </row>
-    <row r="571">
+    <row r="571" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H571" s="1"/>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
     </row>
-    <row r="572">
+    <row r="572" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H572" s="1"/>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
     </row>
-    <row r="573">
+    <row r="573" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H573" s="1"/>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
     </row>
-    <row r="574">
+    <row r="574" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H574" s="1"/>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
     </row>
-    <row r="575">
+    <row r="575" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H575" s="1"/>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
     </row>
-    <row r="576">
+    <row r="576" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H576" s="1"/>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
     </row>
-    <row r="577">
+    <row r="577" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H577" s="1"/>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
     </row>
-    <row r="578">
+    <row r="578" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H578" s="1"/>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
     </row>
-    <row r="579">
+    <row r="579" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H579" s="1"/>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
     </row>
-    <row r="580">
+    <row r="580" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H580" s="1"/>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
     </row>
-    <row r="581">
+    <row r="581" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H581" s="1"/>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
     </row>
-    <row r="582">
+    <row r="582" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
     </row>
-    <row r="583">
+    <row r="583" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
     </row>
-    <row r="584">
+    <row r="584" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
     </row>
-    <row r="585">
+    <row r="585" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
     </row>
-    <row r="586">
+    <row r="586" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
       <c r="J586" s="1"/>
     </row>
-    <row r="587">
+    <row r="587" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
       <c r="J587" s="1"/>
     </row>
-    <row r="588">
+    <row r="588" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
     </row>
-    <row r="589">
+    <row r="589" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
     </row>
-    <row r="590">
+    <row r="590" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
     </row>
-    <row r="591">
+    <row r="591" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
     </row>
-    <row r="592">
+    <row r="592" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
     </row>
-    <row r="593">
+    <row r="593" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H593" s="1"/>
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
     </row>
-    <row r="594">
+    <row r="594" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H594" s="1"/>
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
     </row>
-    <row r="595">
+    <row r="595" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H595" s="1"/>
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
     </row>
-    <row r="596">
+    <row r="596" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H596" s="1"/>
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
     </row>
-    <row r="597">
+    <row r="597" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H597" s="1"/>
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
     </row>
-    <row r="598">
+    <row r="598" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H598" s="1"/>
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
     </row>
-    <row r="599">
+    <row r="599" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H599" s="1"/>
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
     </row>
-    <row r="600">
+    <row r="600" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H600" s="1"/>
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
     </row>
-    <row r="601">
+    <row r="601" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H601" s="1"/>
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
     </row>
-    <row r="602">
+    <row r="602" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H602" s="1"/>
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
     </row>
-    <row r="603">
+    <row r="603" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H603" s="1"/>
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
     </row>
-    <row r="604">
+    <row r="604" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H604" s="1"/>
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
     </row>
-    <row r="605">
+    <row r="605" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H605" s="1"/>
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
     </row>
-    <row r="606">
+    <row r="606" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H606" s="1"/>
       <c r="I606" s="1"/>
       <c r="J606" s="1"/>
     </row>
-    <row r="607">
+    <row r="607" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H607" s="1"/>
       <c r="I607" s="1"/>
       <c r="J607" s="1"/>
     </row>
-    <row r="608">
+    <row r="608" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H608" s="1"/>
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
     </row>
-    <row r="609">
+    <row r="609" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H609" s="1"/>
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
     </row>
-    <row r="610">
+    <row r="610" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H610" s="1"/>
       <c r="I610" s="1"/>
       <c r="J610" s="1"/>
     </row>
-    <row r="611">
+    <row r="611" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H611" s="1"/>
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
     </row>
-    <row r="612">
+    <row r="612" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H612" s="1"/>
       <c r="I612" s="1"/>
       <c r="J612" s="1"/>
     </row>
-    <row r="613">
+    <row r="613" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H613" s="1"/>
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
     </row>
-    <row r="614">
+    <row r="614" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H614" s="1"/>
       <c r="I614" s="1"/>
       <c r="J614" s="1"/>
     </row>
-    <row r="615">
+    <row r="615" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H615" s="1"/>
       <c r="I615" s="1"/>
       <c r="J615" s="1"/>
     </row>
-    <row r="616">
+    <row r="616" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H616" s="1"/>
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
     </row>
-    <row r="617">
+    <row r="617" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H617" s="1"/>
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
     </row>
-    <row r="618">
+    <row r="618" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H618" s="1"/>
       <c r="I618" s="1"/>
       <c r="J618" s="1"/>
     </row>
-    <row r="619">
+    <row r="619" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H619" s="1"/>
       <c r="I619" s="1"/>
       <c r="J619" s="1"/>
     </row>
-    <row r="620">
+    <row r="620" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H620" s="1"/>
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
     </row>
-    <row r="621">
+    <row r="621" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H621" s="1"/>
       <c r="I621" s="1"/>
       <c r="J621" s="1"/>
     </row>
-    <row r="622">
+    <row r="622" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H622" s="1"/>
       <c r="I622" s="1"/>
       <c r="J622" s="1"/>
     </row>
-    <row r="623">
+    <row r="623" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H623" s="1"/>
       <c r="I623" s="1"/>
       <c r="J623" s="1"/>
     </row>
-    <row r="624">
+    <row r="624" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H624" s="1"/>
       <c r="I624" s="1"/>
       <c r="J624" s="1"/>
     </row>
-    <row r="625">
+    <row r="625" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H625" s="1"/>
       <c r="I625" s="1"/>
       <c r="J625" s="1"/>
     </row>
-    <row r="626">
+    <row r="626" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H626" s="1"/>
       <c r="I626" s="1"/>
       <c r="J626" s="1"/>
     </row>
-    <row r="627">
+    <row r="627" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H627" s="1"/>
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
     </row>
-    <row r="628">
+    <row r="628" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H628" s="1"/>
       <c r="I628" s="1"/>
       <c r="J628" s="1"/>
     </row>
-    <row r="629">
+    <row r="629" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H629" s="1"/>
       <c r="I629" s="1"/>
       <c r="J629" s="1"/>
     </row>
-    <row r="630">
+    <row r="630" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H630" s="1"/>
       <c r="I630" s="1"/>
       <c r="J630" s="1"/>
     </row>
-    <row r="631">
+    <row r="631" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H631" s="1"/>
       <c r="I631" s="1"/>
       <c r="J631" s="1"/>
     </row>
-    <row r="632">
+    <row r="632" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H632" s="1"/>
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
     </row>
-    <row r="633">
+    <row r="633" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H633" s="1"/>
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
     </row>
-    <row r="634">
+    <row r="634" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H634" s="1"/>
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
     </row>
-    <row r="635">
+    <row r="635" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H635" s="1"/>
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
     </row>
-    <row r="636">
+    <row r="636" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H636" s="1"/>
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
     </row>
-    <row r="637">
+    <row r="637" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H637" s="1"/>
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
     </row>
-    <row r="638">
+    <row r="638" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H638" s="1"/>
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
     </row>
-    <row r="639">
+    <row r="639" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H639" s="1"/>
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
     </row>
-    <row r="640">
+    <row r="640" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H640" s="1"/>
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
     </row>
-    <row r="641">
+    <row r="641" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H641" s="1"/>
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
     </row>
-    <row r="642">
+    <row r="642" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H642" s="1"/>
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
     </row>
-    <row r="643">
+    <row r="643" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H643" s="1"/>
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
     </row>
-    <row r="644">
+    <row r="644" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H644" s="1"/>
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
     </row>
-    <row r="645">
+    <row r="645" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H645" s="1"/>
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
     </row>
-    <row r="646">
+    <row r="646" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H646" s="1"/>
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
     </row>
-    <row r="647">
+    <row r="647" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H647" s="1"/>
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
     </row>
-    <row r="648">
+    <row r="648" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H648" s="1"/>
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
     </row>
-    <row r="649">
+    <row r="649" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H649" s="1"/>
       <c r="I649" s="1"/>
       <c r="J649" s="1"/>
     </row>
-    <row r="650">
+    <row r="650" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H650" s="1"/>
       <c r="I650" s="1"/>
       <c r="J650" s="1"/>
     </row>
-    <row r="651">
+    <row r="651" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H651" s="1"/>
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
     </row>
-    <row r="652">
+    <row r="652" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H652" s="1"/>
       <c r="I652" s="1"/>
       <c r="J652" s="1"/>
     </row>
-    <row r="653">
+    <row r="653" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H653" s="1"/>
       <c r="I653" s="1"/>
       <c r="J653" s="1"/>
     </row>
-    <row r="654">
+    <row r="654" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H654" s="1"/>
       <c r="I654" s="1"/>
       <c r="J654" s="1"/>
     </row>
-    <row r="655">
+    <row r="655" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H655" s="1"/>
       <c r="I655" s="1"/>
       <c r="J655" s="1"/>
     </row>
-    <row r="656">
+    <row r="656" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H656" s="1"/>
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
     </row>
-    <row r="657">
+    <row r="657" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H657" s="1"/>
       <c r="I657" s="1"/>
       <c r="J657" s="1"/>
     </row>
-    <row r="658">
+    <row r="658" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H658" s="1"/>
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
     </row>
-    <row r="659">
+    <row r="659" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H659" s="1"/>
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
     </row>
-    <row r="660">
+    <row r="660" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H660" s="1"/>
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
     </row>
-    <row r="661">
+    <row r="661" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H661" s="1"/>
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
     </row>
-    <row r="662">
+    <row r="662" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H662" s="1"/>
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
     </row>
-    <row r="663">
+    <row r="663" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H663" s="1"/>
       <c r="I663" s="1"/>
       <c r="J663" s="1"/>
     </row>
-    <row r="664">
+    <row r="664" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H664" s="1"/>
       <c r="I664" s="1"/>
       <c r="J664" s="1"/>
     </row>
-    <row r="665">
+    <row r="665" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H665" s="1"/>
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
     </row>
-    <row r="666">
+    <row r="666" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H666" s="1"/>
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
     </row>
-    <row r="667">
+    <row r="667" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H667" s="1"/>
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
     </row>
-    <row r="668">
+    <row r="668" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H668" s="1"/>
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
     </row>
-    <row r="669">
+    <row r="669" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H669" s="1"/>
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
     </row>
-    <row r="670">
+    <row r="670" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H670" s="1"/>
       <c r="I670" s="1"/>
       <c r="J670" s="1"/>
     </row>
-    <row r="671">
+    <row r="671" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H671" s="1"/>
       <c r="I671" s="1"/>
       <c r="J671" s="1"/>
     </row>
-    <row r="672">
+    <row r="672" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H672" s="1"/>
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
     </row>
-    <row r="673">
+    <row r="673" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H673" s="1"/>
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
     </row>
-    <row r="674">
+    <row r="674" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H674" s="1"/>
       <c r="I674" s="1"/>
       <c r="J674" s="1"/>
     </row>
-    <row r="675">
+    <row r="675" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H675" s="1"/>
       <c r="I675" s="1"/>
       <c r="J675" s="1"/>
     </row>
-    <row r="676">
+    <row r="676" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H676" s="1"/>
       <c r="I676" s="1"/>
       <c r="J676" s="1"/>
     </row>
-    <row r="677">
+    <row r="677" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H677" s="1"/>
       <c r="I677" s="1"/>
       <c r="J677" s="1"/>
     </row>
-    <row r="678">
+    <row r="678" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H678" s="1"/>
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
     </row>
-    <row r="679">
+    <row r="679" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H679" s="1"/>
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
     </row>
-    <row r="680">
+    <row r="680" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H680" s="1"/>
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
     </row>
-    <row r="681">
+    <row r="681" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H681" s="1"/>
       <c r="I681" s="1"/>
       <c r="J681" s="1"/>
     </row>
-    <row r="682">
+    <row r="682" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H682" s="1"/>
       <c r="I682" s="1"/>
       <c r="J682" s="1"/>
     </row>
-    <row r="683">
+    <row r="683" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H683" s="1"/>
       <c r="I683" s="1"/>
       <c r="J683" s="1"/>
     </row>
-    <row r="684">
+    <row r="684" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H684" s="1"/>
       <c r="I684" s="1"/>
       <c r="J684" s="1"/>
     </row>
-    <row r="685">
+    <row r="685" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H685" s="1"/>
       <c r="I685" s="1"/>
       <c r="J685" s="1"/>
     </row>
-    <row r="686">
+    <row r="686" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H686" s="1"/>
       <c r="I686" s="1"/>
       <c r="J686" s="1"/>
     </row>
-    <row r="687">
+    <row r="687" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H687" s="1"/>
       <c r="I687" s="1"/>
       <c r="J687" s="1"/>
     </row>
-    <row r="688">
+    <row r="688" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H688" s="1"/>
       <c r="I688" s="1"/>
       <c r="J688" s="1"/>
     </row>
-    <row r="689">
+    <row r="689" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H689" s="1"/>
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
     </row>
-    <row r="690">
+    <row r="690" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H690" s="1"/>
       <c r="I690" s="1"/>
       <c r="J690" s="1"/>
     </row>
-    <row r="691">
+    <row r="691" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H691" s="1"/>
       <c r="I691" s="1"/>
       <c r="J691" s="1"/>
     </row>
-    <row r="692">
+    <row r="692" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H692" s="1"/>
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
     </row>
-    <row r="693">
+    <row r="693" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H693" s="1"/>
       <c r="I693" s="1"/>
       <c r="J693" s="1"/>
     </row>
-    <row r="694">
+    <row r="694" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H694" s="1"/>
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
     </row>
-    <row r="695">
+    <row r="695" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H695" s="1"/>
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
     </row>
-    <row r="696">
+    <row r="696" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H696" s="1"/>
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
     </row>
-    <row r="697">
+    <row r="697" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H697" s="1"/>
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
     </row>
-    <row r="698">
+    <row r="698" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H698" s="1"/>
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
     </row>
-    <row r="699">
+    <row r="699" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H699" s="1"/>
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
     </row>
-    <row r="700">
+    <row r="700" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H700" s="1"/>
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
     </row>
-    <row r="701">
+    <row r="701" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H701" s="1"/>
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
     </row>
-    <row r="702">
+    <row r="702" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H702" s="1"/>
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
     </row>
-    <row r="703">
+    <row r="703" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H703" s="1"/>
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
     </row>
-    <row r="704">
+    <row r="704" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H704" s="1"/>
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
     </row>
-    <row r="705">
+    <row r="705" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H705" s="1"/>
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
     </row>
-    <row r="706">
+    <row r="706" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H706" s="1"/>
       <c r="I706" s="1"/>
       <c r="J706" s="1"/>
     </row>
-    <row r="707">
+    <row r="707" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H707" s="1"/>
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
     </row>
-    <row r="708">
+    <row r="708" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H708" s="1"/>
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
     </row>
-    <row r="709">
+    <row r="709" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H709" s="1"/>
       <c r="I709" s="1"/>
       <c r="J709" s="1"/>
     </row>
-    <row r="710">
+    <row r="710" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H710" s="1"/>
       <c r="I710" s="1"/>
       <c r="J710" s="1"/>
     </row>
-    <row r="711">
+    <row r="711" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H711" s="1"/>
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
     </row>
-    <row r="712">
+    <row r="712" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H712" s="1"/>
       <c r="I712" s="1"/>
       <c r="J712" s="1"/>
     </row>
-    <row r="713">
+    <row r="713" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H713" s="1"/>
       <c r="I713" s="1"/>
       <c r="J713" s="1"/>
     </row>
-    <row r="714">
+    <row r="714" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H714" s="1"/>
       <c r="I714" s="1"/>
       <c r="J714" s="1"/>
     </row>
-    <row r="715">
+    <row r="715" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H715" s="1"/>
       <c r="I715" s="1"/>
       <c r="J715" s="1"/>
     </row>
-    <row r="716">
+    <row r="716" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H716" s="1"/>
       <c r="I716" s="1"/>
       <c r="J716" s="1"/>
     </row>
-    <row r="717">
+    <row r="717" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H717" s="1"/>
       <c r="I717" s="1"/>
       <c r="J717" s="1"/>
     </row>
-    <row r="718">
+    <row r="718" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H718" s="1"/>
       <c r="I718" s="1"/>
       <c r="J718" s="1"/>
     </row>
-    <row r="719">
+    <row r="719" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H719" s="1"/>
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
     </row>
-    <row r="720">
+    <row r="720" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H720" s="1"/>
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
     </row>
-    <row r="721">
+    <row r="721" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H721" s="1"/>
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
     </row>
-    <row r="722">
+    <row r="722" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H722" s="1"/>
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
     </row>
-    <row r="723">
+    <row r="723" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H723" s="1"/>
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
     </row>
-    <row r="724">
+    <row r="724" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H724" s="1"/>
       <c r="I724" s="1"/>
       <c r="J724" s="1"/>
     </row>
-    <row r="725">
+    <row r="725" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H725" s="1"/>
       <c r="I725" s="1"/>
       <c r="J725" s="1"/>
     </row>
-    <row r="726">
+    <row r="726" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H726" s="1"/>
       <c r="I726" s="1"/>
       <c r="J726" s="1"/>
     </row>
-    <row r="727">
+    <row r="727" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H727" s="1"/>
       <c r="I727" s="1"/>
       <c r="J727" s="1"/>
     </row>
-    <row r="728">
+    <row r="728" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H728" s="1"/>
       <c r="I728" s="1"/>
       <c r="J728" s="1"/>
     </row>
-    <row r="729">
+    <row r="729" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H729" s="1"/>
       <c r="I729" s="1"/>
       <c r="J729" s="1"/>
     </row>
-    <row r="730">
+    <row r="730" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H730" s="1"/>
       <c r="I730" s="1"/>
       <c r="J730" s="1"/>
     </row>
-    <row r="731">
+    <row r="731" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H731" s="1"/>
       <c r="I731" s="1"/>
       <c r="J731" s="1"/>
     </row>
-    <row r="732">
+    <row r="732" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H732" s="1"/>
       <c r="I732" s="1"/>
       <c r="J732" s="1"/>
     </row>
-    <row r="733">
+    <row r="733" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H733" s="1"/>
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
     </row>
-    <row r="734">
+    <row r="734" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H734" s="1"/>
       <c r="I734" s="1"/>
       <c r="J734" s="1"/>
     </row>
-    <row r="735">
+    <row r="735" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H735" s="1"/>
       <c r="I735" s="1"/>
       <c r="J735" s="1"/>
     </row>
-    <row r="736">
+    <row r="736" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H736" s="1"/>
       <c r="I736" s="1"/>
       <c r="J736" s="1"/>
     </row>
-    <row r="737">
+    <row r="737" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H737" s="1"/>
       <c r="I737" s="1"/>
       <c r="J737" s="1"/>
     </row>
-    <row r="738">
+    <row r="738" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H738" s="1"/>
       <c r="I738" s="1"/>
       <c r="J738" s="1"/>
     </row>
-    <row r="739">
+    <row r="739" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H739" s="1"/>
       <c r="I739" s="1"/>
       <c r="J739" s="1"/>
     </row>
-    <row r="740">
+    <row r="740" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H740" s="1"/>
       <c r="I740" s="1"/>
       <c r="J740" s="1"/>
     </row>
-    <row r="741">
+    <row r="741" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H741" s="1"/>
       <c r="I741" s="1"/>
       <c r="J741" s="1"/>
     </row>
-    <row r="742">
+    <row r="742" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H742" s="1"/>
       <c r="I742" s="1"/>
       <c r="J742" s="1"/>
     </row>
-    <row r="743">
+    <row r="743" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H743" s="1"/>
       <c r="I743" s="1"/>
       <c r="J743" s="1"/>
     </row>
-    <row r="744">
+    <row r="744" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H744" s="1"/>
       <c r="I744" s="1"/>
       <c r="J744" s="1"/>
     </row>
-    <row r="745">
+    <row r="745" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H745" s="1"/>
       <c r="I745" s="1"/>
       <c r="J745" s="1"/>
     </row>
-    <row r="746">
+    <row r="746" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H746" s="1"/>
       <c r="I746" s="1"/>
       <c r="J746" s="1"/>
     </row>
-    <row r="747">
+    <row r="747" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H747" s="1"/>
       <c r="I747" s="1"/>
       <c r="J747" s="1"/>
     </row>
-    <row r="748">
+    <row r="748" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H748" s="1"/>
       <c r="I748" s="1"/>
       <c r="J748" s="1"/>
     </row>
-    <row r="749">
+    <row r="749" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H749" s="1"/>
       <c r="I749" s="1"/>
       <c r="J749" s="1"/>
     </row>
-    <row r="750">
+    <row r="750" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H750" s="1"/>
       <c r="I750" s="1"/>
       <c r="J750" s="1"/>
     </row>
-    <row r="751">
+    <row r="751" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H751" s="1"/>
       <c r="I751" s="1"/>
       <c r="J751" s="1"/>
     </row>
-    <row r="752">
+    <row r="752" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H752" s="1"/>
       <c r="I752" s="1"/>
       <c r="J752" s="1"/>
     </row>
-    <row r="753">
+    <row r="753" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H753" s="1"/>
       <c r="I753" s="1"/>
       <c r="J753" s="1"/>
     </row>
-    <row r="754">
+    <row r="754" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H754" s="1"/>
       <c r="I754" s="1"/>
       <c r="J754" s="1"/>
     </row>
-    <row r="755">
+    <row r="755" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H755" s="1"/>
       <c r="I755" s="1"/>
       <c r="J755" s="1"/>
     </row>
-    <row r="756">
+    <row r="756" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H756" s="1"/>
       <c r="I756" s="1"/>
       <c r="J756" s="1"/>
     </row>
-    <row r="757">
+    <row r="757" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H757" s="1"/>
       <c r="I757" s="1"/>
       <c r="J757" s="1"/>
     </row>
-    <row r="758">
+    <row r="758" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H758" s="1"/>
       <c r="I758" s="1"/>
       <c r="J758" s="1"/>
     </row>
-    <row r="759">
+    <row r="759" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H759" s="1"/>
       <c r="I759" s="1"/>
       <c r="J759" s="1"/>
     </row>
-    <row r="760">
+    <row r="760" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H760" s="1"/>
       <c r="I760" s="1"/>
       <c r="J760" s="1"/>
     </row>
-    <row r="761">
+    <row r="761" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H761" s="1"/>
       <c r="I761" s="1"/>
       <c r="J761" s="1"/>
     </row>
-    <row r="762">
+    <row r="762" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H762" s="1"/>
       <c r="I762" s="1"/>
       <c r="J762" s="1"/>
     </row>
-    <row r="763">
+    <row r="763" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H763" s="1"/>
       <c r="I763" s="1"/>
       <c r="J763" s="1"/>
     </row>
-    <row r="764">
+    <row r="764" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H764" s="1"/>
       <c r="I764" s="1"/>
       <c r="J764" s="1"/>
     </row>
-    <row r="765">
+    <row r="765" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H765" s="1"/>
       <c r="I765" s="1"/>
       <c r="J765" s="1"/>
     </row>
-    <row r="766">
+    <row r="766" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H766" s="1"/>
       <c r="I766" s="1"/>
       <c r="J766" s="1"/>
     </row>
-    <row r="767">
+    <row r="767" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H767" s="1"/>
       <c r="I767" s="1"/>
       <c r="J767" s="1"/>
     </row>
-    <row r="768">
+    <row r="768" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H768" s="1"/>
       <c r="I768" s="1"/>
       <c r="J768" s="1"/>
     </row>
-    <row r="769">
+    <row r="769" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H769" s="1"/>
       <c r="I769" s="1"/>
       <c r="J769" s="1"/>
     </row>
-    <row r="770">
+    <row r="770" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H770" s="1"/>
       <c r="I770" s="1"/>
       <c r="J770" s="1"/>
     </row>
-    <row r="771">
+    <row r="771" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H771" s="1"/>
       <c r="I771" s="1"/>
       <c r="J771" s="1"/>
     </row>
-    <row r="772">
+    <row r="772" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H772" s="1"/>
       <c r="I772" s="1"/>
       <c r="J772" s="1"/>
     </row>
-    <row r="773">
+    <row r="773" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H773" s="1"/>
       <c r="I773" s="1"/>
       <c r="J773" s="1"/>
     </row>
-    <row r="774">
+    <row r="774" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H774" s="1"/>
       <c r="I774" s="1"/>
       <c r="J774" s="1"/>
     </row>
-    <row r="775">
+    <row r="775" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H775" s="1"/>
       <c r="I775" s="1"/>
       <c r="J775" s="1"/>
     </row>
-    <row r="776">
+    <row r="776" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H776" s="1"/>
       <c r="I776" s="1"/>
       <c r="J776" s="1"/>
     </row>
-    <row r="777">
+    <row r="777" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H777" s="1"/>
       <c r="I777" s="1"/>
       <c r="J777" s="1"/>
     </row>
-    <row r="778">
+    <row r="778" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H778" s="1"/>
       <c r="I778" s="1"/>
       <c r="J778" s="1"/>
     </row>
-    <row r="779">
+    <row r="779" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H779" s="1"/>
       <c r="I779" s="1"/>
       <c r="J779" s="1"/>
     </row>
-    <row r="780">
+    <row r="780" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H780" s="1"/>
       <c r="I780" s="1"/>
       <c r="J780" s="1"/>
     </row>
-    <row r="781">
+    <row r="781" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H781" s="1"/>
       <c r="I781" s="1"/>
       <c r="J781" s="1"/>
     </row>
-    <row r="782">
+    <row r="782" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H782" s="1"/>
       <c r="I782" s="1"/>
       <c r="J782" s="1"/>
     </row>
-    <row r="783">
+    <row r="783" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H783" s="1"/>
       <c r="I783" s="1"/>
       <c r="J783" s="1"/>
     </row>
-    <row r="784">
+    <row r="784" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H784" s="1"/>
       <c r="I784" s="1"/>
       <c r="J784" s="1"/>
     </row>
-    <row r="785">
+    <row r="785" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H785" s="1"/>
       <c r="I785" s="1"/>
       <c r="J785" s="1"/>
     </row>
-    <row r="786">
+    <row r="786" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H786" s="1"/>
       <c r="I786" s="1"/>
       <c r="J786" s="1"/>
     </row>
-    <row r="787">
+    <row r="787" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H787" s="1"/>
       <c r="I787" s="1"/>
       <c r="J787" s="1"/>
     </row>
-    <row r="788">
+    <row r="788" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H788" s="1"/>
       <c r="I788" s="1"/>
       <c r="J788" s="1"/>
     </row>
-    <row r="789">
+    <row r="789" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H789" s="1"/>
       <c r="I789" s="1"/>
       <c r="J789" s="1"/>
     </row>
-    <row r="790">
+    <row r="790" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H790" s="1"/>
       <c r="I790" s="1"/>
       <c r="J790" s="1"/>
     </row>
-    <row r="791">
+    <row r="791" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H791" s="1"/>
       <c r="I791" s="1"/>
       <c r="J791" s="1"/>
     </row>
-    <row r="792">
+    <row r="792" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H792" s="1"/>
       <c r="I792" s="1"/>
       <c r="J792" s="1"/>
     </row>
-    <row r="793">
+    <row r="793" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H793" s="1"/>
       <c r="I793" s="1"/>
       <c r="J793" s="1"/>
     </row>
-    <row r="794">
+    <row r="794" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H794" s="1"/>
       <c r="I794" s="1"/>
       <c r="J794" s="1"/>
     </row>
-    <row r="795">
+    <row r="795" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H795" s="1"/>
       <c r="I795" s="1"/>
       <c r="J795" s="1"/>
     </row>
-    <row r="796">
+    <row r="796" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H796" s="1"/>
       <c r="I796" s="1"/>
       <c r="J796" s="1"/>
     </row>
-    <row r="797">
+    <row r="797" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H797" s="1"/>
       <c r="I797" s="1"/>
       <c r="J797" s="1"/>
     </row>
-    <row r="798">
+    <row r="798" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H798" s="1"/>
       <c r="I798" s="1"/>
       <c r="J798" s="1"/>
     </row>
-    <row r="799">
+    <row r="799" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H799" s="1"/>
       <c r="I799" s="1"/>
       <c r="J799" s="1"/>
     </row>
-    <row r="800">
+    <row r="800" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H800" s="1"/>
       <c r="I800" s="1"/>
       <c r="J800" s="1"/>
     </row>
-    <row r="801">
+    <row r="801" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H801" s="1"/>
       <c r="I801" s="1"/>
       <c r="J801" s="1"/>
     </row>
-    <row r="802">
+    <row r="802" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H802" s="1"/>
       <c r="I802" s="1"/>
       <c r="J802" s="1"/>
     </row>
-    <row r="803">
+    <row r="803" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H803" s="1"/>
       <c r="I803" s="1"/>
       <c r="J803" s="1"/>
     </row>
-    <row r="804">
+    <row r="804" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H804" s="1"/>
       <c r="I804" s="1"/>
       <c r="J804" s="1"/>
     </row>
-    <row r="805">
+    <row r="805" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H805" s="1"/>
       <c r="I805" s="1"/>
       <c r="J805" s="1"/>
     </row>
-    <row r="806">
+    <row r="806" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H806" s="1"/>
       <c r="I806" s="1"/>
       <c r="J806" s="1"/>
     </row>
-    <row r="807">
+    <row r="807" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H807" s="1"/>
       <c r="I807" s="1"/>
       <c r="J807" s="1"/>
     </row>
-    <row r="808">
+    <row r="808" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H808" s="1"/>
       <c r="I808" s="1"/>
       <c r="J808" s="1"/>
     </row>
-    <row r="809">
+    <row r="809" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H809" s="1"/>
       <c r="I809" s="1"/>
       <c r="J809" s="1"/>
     </row>
-    <row r="810">
+    <row r="810" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H810" s="1"/>
       <c r="I810" s="1"/>
       <c r="J810" s="1"/>
     </row>
-    <row r="811">
+    <row r="811" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H811" s="1"/>
       <c r="I811" s="1"/>
       <c r="J811" s="1"/>
     </row>
-    <row r="812">
+    <row r="812" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H812" s="1"/>
       <c r="I812" s="1"/>
       <c r="J812" s="1"/>
     </row>
-    <row r="813">
+    <row r="813" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H813" s="1"/>
       <c r="I813" s="1"/>
       <c r="J813" s="1"/>
     </row>
-    <row r="814">
+    <row r="814" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H814" s="1"/>
       <c r="I814" s="1"/>
       <c r="J814" s="1"/>
     </row>
-    <row r="815">
+    <row r="815" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H815" s="1"/>
       <c r="I815" s="1"/>
       <c r="J815" s="1"/>
     </row>
-    <row r="816">
+    <row r="816" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H816" s="1"/>
       <c r="I816" s="1"/>
       <c r="J816" s="1"/>
     </row>
-    <row r="817">
+    <row r="817" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H817" s="1"/>
       <c r="I817" s="1"/>
       <c r="J817" s="1"/>
     </row>
-    <row r="818">
+    <row r="818" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H818" s="1"/>
       <c r="I818" s="1"/>
       <c r="J818" s="1"/>
     </row>
-    <row r="819">
+    <row r="819" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H819" s="1"/>
       <c r="I819" s="1"/>
       <c r="J819" s="1"/>
     </row>
-    <row r="820">
+    <row r="820" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H820" s="1"/>
       <c r="I820" s="1"/>
       <c r="J820" s="1"/>
     </row>
-    <row r="821">
+    <row r="821" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H821" s="1"/>
       <c r="I821" s="1"/>
       <c r="J821" s="1"/>
     </row>
-    <row r="822">
+    <row r="822" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H822" s="1"/>
       <c r="I822" s="1"/>
       <c r="J822" s="1"/>
     </row>
-    <row r="823">
+    <row r="823" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H823" s="1"/>
       <c r="I823" s="1"/>
       <c r="J823" s="1"/>
     </row>
-    <row r="824">
+    <row r="824" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H824" s="1"/>
       <c r="I824" s="1"/>
       <c r="J824" s="1"/>
     </row>
-    <row r="825">
+    <row r="825" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H825" s="1"/>
       <c r="I825" s="1"/>
       <c r="J825" s="1"/>
     </row>
-    <row r="826">
+    <row r="826" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H826" s="1"/>
       <c r="I826" s="1"/>
       <c r="J826" s="1"/>
     </row>
-    <row r="827">
+    <row r="827" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H827" s="1"/>
       <c r="I827" s="1"/>
       <c r="J827" s="1"/>
     </row>
-    <row r="828">
+    <row r="828" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H828" s="1"/>
       <c r="I828" s="1"/>
       <c r="J828" s="1"/>
     </row>
-    <row r="829">
+    <row r="829" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H829" s="1"/>
       <c r="I829" s="1"/>
       <c r="J829" s="1"/>
     </row>
-    <row r="830">
+    <row r="830" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H830" s="1"/>
       <c r="I830" s="1"/>
       <c r="J830" s="1"/>
     </row>
-    <row r="831">
+    <row r="831" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H831" s="1"/>
       <c r="I831" s="1"/>
       <c r="J831" s="1"/>
     </row>
-    <row r="832">
+    <row r="832" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H832" s="1"/>
       <c r="I832" s="1"/>
       <c r="J832" s="1"/>
     </row>
-    <row r="833">
+    <row r="833" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H833" s="1"/>
       <c r="I833" s="1"/>
       <c r="J833" s="1"/>
     </row>
-    <row r="834">
+    <row r="834" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H834" s="1"/>
       <c r="I834" s="1"/>
       <c r="J834" s="1"/>
     </row>
-    <row r="835">
+    <row r="835" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H835" s="1"/>
       <c r="I835" s="1"/>
       <c r="J835" s="1"/>
     </row>
-    <row r="836">
+    <row r="836" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H836" s="1"/>
       <c r="I836" s="1"/>
       <c r="J836" s="1"/>
     </row>
-    <row r="837">
+    <row r="837" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H837" s="1"/>
       <c r="I837" s="1"/>
       <c r="J837" s="1"/>
     </row>
-    <row r="838">
+    <row r="838" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H838" s="1"/>
       <c r="I838" s="1"/>
       <c r="J838" s="1"/>
     </row>
-    <row r="839">
+    <row r="839" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H839" s="1"/>
       <c r="I839" s="1"/>
       <c r="J839" s="1"/>
     </row>
-    <row r="840">
+    <row r="840" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H840" s="1"/>
       <c r="I840" s="1"/>
       <c r="J840" s="1"/>
     </row>
-    <row r="841">
+    <row r="841" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H841" s="1"/>
       <c r="I841" s="1"/>
       <c r="J841" s="1"/>
     </row>
-    <row r="842">
+    <row r="842" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H842" s="1"/>
       <c r="I842" s="1"/>
       <c r="J842" s="1"/>
     </row>
-    <row r="843">
+    <row r="843" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H843" s="1"/>
       <c r="I843" s="1"/>
       <c r="J843" s="1"/>
     </row>
-    <row r="844">
+    <row r="844" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H844" s="1"/>
       <c r="I844" s="1"/>
       <c r="J844" s="1"/>
     </row>
-    <row r="845">
+    <row r="845" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H845" s="1"/>
       <c r="I845" s="1"/>
       <c r="J845" s="1"/>
     </row>
-    <row r="846">
+    <row r="846" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H846" s="1"/>
       <c r="I846" s="1"/>
       <c r="J846" s="1"/>
     </row>
-    <row r="847">
+    <row r="847" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H847" s="1"/>
       <c r="I847" s="1"/>
       <c r="J847" s="1"/>
     </row>
-    <row r="848">
+    <row r="848" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H848" s="1"/>
       <c r="I848" s="1"/>
       <c r="J848" s="1"/>
     </row>
-    <row r="849">
+    <row r="849" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H849" s="1"/>
       <c r="I849" s="1"/>
       <c r="J849" s="1"/>
     </row>
-    <row r="850">
+    <row r="850" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H850" s="1"/>
       <c r="I850" s="1"/>
       <c r="J850" s="1"/>
     </row>
-    <row r="851">
+    <row r="851" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H851" s="1"/>
       <c r="I851" s="1"/>
       <c r="J851" s="1"/>
     </row>
-    <row r="852">
+    <row r="852" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H852" s="1"/>
       <c r="I852" s="1"/>
       <c r="J852" s="1"/>
     </row>
-    <row r="853">
+    <row r="853" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H853" s="1"/>
       <c r="I853" s="1"/>
       <c r="J853" s="1"/>
     </row>
-    <row r="854">
+    <row r="854" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H854" s="1"/>
       <c r="I854" s="1"/>
       <c r="J854" s="1"/>
     </row>
-    <row r="855">
+    <row r="855" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H855" s="1"/>
       <c r="I855" s="1"/>
       <c r="J855" s="1"/>
     </row>
-    <row r="856">
+    <row r="856" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H856" s="1"/>
       <c r="I856" s="1"/>
       <c r="J856" s="1"/>
     </row>
-    <row r="857">
+    <row r="857" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H857" s="1"/>
       <c r="I857" s="1"/>
       <c r="J857" s="1"/>
     </row>
-    <row r="858">
+    <row r="858" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H858" s="1"/>
       <c r="I858" s="1"/>
       <c r="J858" s="1"/>
     </row>
-    <row r="859">
+    <row r="859" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H859" s="1"/>
       <c r="I859" s="1"/>
       <c r="J859" s="1"/>
     </row>
-    <row r="860">
+    <row r="860" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H860" s="1"/>
       <c r="I860" s="1"/>
       <c r="J860" s="1"/>
     </row>
-    <row r="861">
+    <row r="861" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H861" s="1"/>
       <c r="I861" s="1"/>
       <c r="J861" s="1"/>
     </row>
-    <row r="862">
+    <row r="862" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H862" s="1"/>
       <c r="I862" s="1"/>
       <c r="J862" s="1"/>
     </row>
-    <row r="863">
+    <row r="863" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H863" s="1"/>
       <c r="I863" s="1"/>
       <c r="J863" s="1"/>
     </row>
-    <row r="864">
+    <row r="864" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H864" s="1"/>
       <c r="I864" s="1"/>
       <c r="J864" s="1"/>
     </row>
-    <row r="865">
+    <row r="865" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H865" s="1"/>
       <c r="I865" s="1"/>
       <c r="J865" s="1"/>
     </row>
-    <row r="866">
+    <row r="866" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H866" s="1"/>
       <c r="I866" s="1"/>
       <c r="J866" s="1"/>
     </row>
-    <row r="867">
+    <row r="867" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H867" s="1"/>
       <c r="I867" s="1"/>
       <c r="J867" s="1"/>
     </row>
-    <row r="868">
+    <row r="868" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H868" s="1"/>
       <c r="I868" s="1"/>
       <c r="J868" s="1"/>
     </row>
-    <row r="869">
+    <row r="869" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H869" s="1"/>
       <c r="I869" s="1"/>
       <c r="J869" s="1"/>
     </row>
-    <row r="870">
+    <row r="870" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H870" s="1"/>
       <c r="I870" s="1"/>
       <c r="J870" s="1"/>
     </row>
-    <row r="871">
+    <row r="871" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H871" s="1"/>
       <c r="I871" s="1"/>
       <c r="J871" s="1"/>
     </row>
-    <row r="872">
+    <row r="872" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H872" s="1"/>
       <c r="I872" s="1"/>
       <c r="J872" s="1"/>
     </row>
-    <row r="873">
+    <row r="873" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H873" s="1"/>
       <c r="I873" s="1"/>
       <c r="J873" s="1"/>
     </row>
-    <row r="874">
+    <row r="874" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H874" s="1"/>
       <c r="I874" s="1"/>
       <c r="J874" s="1"/>
     </row>
-    <row r="875">
+    <row r="875" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H875" s="1"/>
       <c r="I875" s="1"/>
       <c r="J875" s="1"/>
     </row>
-    <row r="876">
+    <row r="876" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H876" s="1"/>
       <c r="I876" s="1"/>
       <c r="J876" s="1"/>
     </row>
-    <row r="877">
+    <row r="877" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H877" s="1"/>
       <c r="I877" s="1"/>
       <c r="J877" s="1"/>
     </row>
-    <row r="878">
+    <row r="878" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H878" s="1"/>
       <c r="I878" s="1"/>
       <c r="J878" s="1"/>
     </row>
-    <row r="879">
+    <row r="879" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H879" s="1"/>
       <c r="I879" s="1"/>
       <c r="J879" s="1"/>
     </row>
-    <row r="880">
+    <row r="880" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H880" s="1"/>
       <c r="I880" s="1"/>
       <c r="J880" s="1"/>
     </row>
-    <row r="881">
+    <row r="881" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H881" s="1"/>
       <c r="I881" s="1"/>
       <c r="J881" s="1"/>
     </row>
-    <row r="882">
+    <row r="882" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H882" s="1"/>
       <c r="I882" s="1"/>
       <c r="J882" s="1"/>
     </row>
-    <row r="883">
+    <row r="883" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H883" s="1"/>
       <c r="I883" s="1"/>
       <c r="J883" s="1"/>
     </row>
-    <row r="884">
+    <row r="884" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H884" s="1"/>
       <c r="I884" s="1"/>
       <c r="J884" s="1"/>
     </row>
-    <row r="885">
+    <row r="885" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H885" s="1"/>
       <c r="I885" s="1"/>
       <c r="J885" s="1"/>
     </row>
-    <row r="886">
+    <row r="886" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H886" s="1"/>
       <c r="I886" s="1"/>
       <c r="J886" s="1"/>
     </row>
-    <row r="887">
+    <row r="887" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H887" s="1"/>
       <c r="I887" s="1"/>
       <c r="J887" s="1"/>
     </row>
-    <row r="888">
+    <row r="888" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H888" s="1"/>
       <c r="I888" s="1"/>
       <c r="J888" s="1"/>
     </row>
-    <row r="889">
+    <row r="889" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H889" s="1"/>
       <c r="I889" s="1"/>
       <c r="J889" s="1"/>
     </row>
-    <row r="890">
+    <row r="890" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H890" s="1"/>
       <c r="I890" s="1"/>
       <c r="J890" s="1"/>
     </row>
-    <row r="891">
+    <row r="891" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H891" s="1"/>
       <c r="I891" s="1"/>
       <c r="J891" s="1"/>
     </row>
-    <row r="892">
+    <row r="892" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H892" s="1"/>
       <c r="I892" s="1"/>
       <c r="J892" s="1"/>
     </row>
-    <row r="893">
+    <row r="893" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H893" s="1"/>
       <c r="I893" s="1"/>
       <c r="J893" s="1"/>
     </row>
-    <row r="894">
+    <row r="894" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H894" s="1"/>
       <c r="I894" s="1"/>
       <c r="J894" s="1"/>
     </row>
-    <row r="895">
+    <row r="895" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H895" s="1"/>
       <c r="I895" s="1"/>
       <c r="J895" s="1"/>
     </row>
-    <row r="896">
+    <row r="896" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H896" s="1"/>
       <c r="I896" s="1"/>
       <c r="J896" s="1"/>
     </row>
-    <row r="897">
+    <row r="897" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H897" s="1"/>
       <c r="I897" s="1"/>
       <c r="J897" s="1"/>
     </row>
-    <row r="898">
+    <row r="898" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H898" s="1"/>
       <c r="I898" s="1"/>
       <c r="J898" s="1"/>
     </row>
-    <row r="899">
+    <row r="899" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H899" s="1"/>
       <c r="I899" s="1"/>
       <c r="J899" s="1"/>
     </row>
-    <row r="900">
+    <row r="900" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H900" s="1"/>
       <c r="I900" s="1"/>
       <c r="J900" s="1"/>
     </row>
-    <row r="901">
+    <row r="901" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H901" s="1"/>
       <c r="I901" s="1"/>
       <c r="J901" s="1"/>
     </row>
-    <row r="902">
+    <row r="902" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H902" s="1"/>
       <c r="I902" s="1"/>
       <c r="J902" s="1"/>
     </row>
-    <row r="903">
+    <row r="903" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H903" s="1"/>
       <c r="I903" s="1"/>
       <c r="J903" s="1"/>
     </row>
-    <row r="904">
+    <row r="904" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H904" s="1"/>
       <c r="I904" s="1"/>
       <c r="J904" s="1"/>
     </row>
-    <row r="905">
+    <row r="905" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H905" s="1"/>
       <c r="I905" s="1"/>
       <c r="J905" s="1"/>
     </row>
-    <row r="906">
+    <row r="906" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H906" s="1"/>
       <c r="I906" s="1"/>
       <c r="J906" s="1"/>
     </row>
-    <row r="907">
+    <row r="907" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H907" s="1"/>
       <c r="I907" s="1"/>
       <c r="J907" s="1"/>
     </row>
-    <row r="908">
+    <row r="908" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H908" s="1"/>
       <c r="I908" s="1"/>
       <c r="J908" s="1"/>
     </row>
-    <row r="909">
+    <row r="909" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H909" s="1"/>
       <c r="I909" s="1"/>
       <c r="J909" s="1"/>
     </row>
-    <row r="910">
+    <row r="910" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H910" s="1"/>
       <c r="I910" s="1"/>
       <c r="J910" s="1"/>
     </row>
-    <row r="911">
+    <row r="911" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H911" s="1"/>
       <c r="I911" s="1"/>
       <c r="J911" s="1"/>
     </row>
-    <row r="912">
+    <row r="912" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H912" s="1"/>
       <c r="I912" s="1"/>
       <c r="J912" s="1"/>
     </row>
-    <row r="913">
+    <row r="913" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H913" s="1"/>
       <c r="I913" s="1"/>
       <c r="J913" s="1"/>
     </row>
-    <row r="914">
+    <row r="914" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H914" s="1"/>
       <c r="I914" s="1"/>
       <c r="J914" s="1"/>
     </row>
-    <row r="915">
+    <row r="915" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H915" s="1"/>
       <c r="I915" s="1"/>
       <c r="J915" s="1"/>
     </row>
-    <row r="916">
+    <row r="916" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H916" s="1"/>
       <c r="I916" s="1"/>
       <c r="J916" s="1"/>
     </row>
-    <row r="917">
+    <row r="917" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H917" s="1"/>
       <c r="I917" s="1"/>
       <c r="J917" s="1"/>
     </row>
-    <row r="918">
+    <row r="918" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H918" s="1"/>
       <c r="I918" s="1"/>
       <c r="J918" s="1"/>
     </row>
-    <row r="919">
+    <row r="919" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H919" s="1"/>
       <c r="I919" s="1"/>
       <c r="J919" s="1"/>
     </row>
-    <row r="920">
+    <row r="920" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H920" s="1"/>
       <c r="I920" s="1"/>
       <c r="J920" s="1"/>
     </row>
-    <row r="921">
+    <row r="921" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H921" s="1"/>
       <c r="I921" s="1"/>
       <c r="J921" s="1"/>
     </row>
-    <row r="922">
+    <row r="922" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H922" s="1"/>
       <c r="I922" s="1"/>
       <c r="J922" s="1"/>
     </row>
-    <row r="923">
+    <row r="923" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H923" s="1"/>
       <c r="I923" s="1"/>
       <c r="J923" s="1"/>
     </row>
-    <row r="924">
+    <row r="924" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H924" s="1"/>
       <c r="I924" s="1"/>
       <c r="J924" s="1"/>
     </row>
-    <row r="925">
+    <row r="925" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H925" s="1"/>
       <c r="I925" s="1"/>
       <c r="J925" s="1"/>
     </row>
-    <row r="926">
+    <row r="926" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H926" s="1"/>
       <c r="I926" s="1"/>
       <c r="J926" s="1"/>
     </row>
-    <row r="927">
+    <row r="927" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H927" s="1"/>
       <c r="I927" s="1"/>
       <c r="J927" s="1"/>
     </row>
-    <row r="928">
+    <row r="928" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H928" s="1"/>
       <c r="I928" s="1"/>
       <c r="J928" s="1"/>
     </row>
-    <row r="929">
+    <row r="929" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H929" s="1"/>
       <c r="I929" s="1"/>
       <c r="J929" s="1"/>
     </row>
-    <row r="930">
+    <row r="930" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H930" s="1"/>
       <c r="I930" s="1"/>
       <c r="J930" s="1"/>
     </row>
-    <row r="931">
+    <row r="931" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H931" s="1"/>
       <c r="I931" s="1"/>
       <c r="J931" s="1"/>
     </row>
-    <row r="932">
+    <row r="932" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H932" s="1"/>
       <c r="I932" s="1"/>
       <c r="J932" s="1"/>
     </row>
-    <row r="933">
+    <row r="933" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H933" s="1"/>
       <c r="I933" s="1"/>
       <c r="J933" s="1"/>
     </row>
-    <row r="934">
+    <row r="934" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H934" s="1"/>
       <c r="I934" s="1"/>
       <c r="J934" s="1"/>
     </row>
-    <row r="935">
+    <row r="935" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H935" s="1"/>
       <c r="I935" s="1"/>
       <c r="J935" s="1"/>
     </row>
-    <row r="936">
+    <row r="936" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H936" s="1"/>
       <c r="I936" s="1"/>
       <c r="J936" s="1"/>
     </row>
-    <row r="937">
+    <row r="937" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H937" s="1"/>
       <c r="I937" s="1"/>
       <c r="J937" s="1"/>
     </row>
-    <row r="938">
+    <row r="938" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H938" s="1"/>
       <c r="I938" s="1"/>
       <c r="J938" s="1"/>
     </row>
-    <row r="939">
+    <row r="939" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H939" s="1"/>
       <c r="I939" s="1"/>
       <c r="J939" s="1"/>
     </row>
-    <row r="940">
+    <row r="940" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H940" s="1"/>
       <c r="I940" s="1"/>
       <c r="J940" s="1"/>
     </row>
-    <row r="941">
+    <row r="941" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H941" s="1"/>
       <c r="I941" s="1"/>
       <c r="J941" s="1"/>
     </row>
-    <row r="942">
+    <row r="942" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H942" s="1"/>
       <c r="I942" s="1"/>
       <c r="J942" s="1"/>
     </row>
-    <row r="943">
+    <row r="943" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H943" s="1"/>
       <c r="I943" s="1"/>
       <c r="J943" s="1"/>
     </row>
-    <row r="944">
+    <row r="944" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H944" s="1"/>
       <c r="I944" s="1"/>
       <c r="J944" s="1"/>
     </row>
-    <row r="945">
+    <row r="945" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H945" s="1"/>
       <c r="I945" s="1"/>
       <c r="J945" s="1"/>
     </row>
-    <row r="946">
+    <row r="946" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H946" s="1"/>
       <c r="I946" s="1"/>
       <c r="J946" s="1"/>
     </row>
-    <row r="947">
+    <row r="947" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H947" s="1"/>
       <c r="I947" s="1"/>
       <c r="J947" s="1"/>
     </row>
-    <row r="948">
+    <row r="948" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H948" s="1"/>
       <c r="I948" s="1"/>
       <c r="J948" s="1"/>
     </row>
-    <row r="949">
+    <row r="949" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H949" s="1"/>
       <c r="I949" s="1"/>
       <c r="J949" s="1"/>
     </row>
-    <row r="950">
+    <row r="950" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H950" s="1"/>
       <c r="I950" s="1"/>
       <c r="J950" s="1"/>
     </row>
-    <row r="951">
+    <row r="951" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H951" s="1"/>
       <c r="I951" s="1"/>
       <c r="J951" s="1"/>
     </row>
-    <row r="952">
+    <row r="952" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H952" s="1"/>
       <c r="I952" s="1"/>
       <c r="J952" s="1"/>
     </row>
-    <row r="953">
+    <row r="953" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H953" s="1"/>
       <c r="I953" s="1"/>
       <c r="J953" s="1"/>
     </row>
-    <row r="954">
+    <row r="954" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H954" s="1"/>
       <c r="I954" s="1"/>
       <c r="J954" s="1"/>
     </row>
-    <row r="955">
+    <row r="955" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H955" s="1"/>
       <c r="I955" s="1"/>
       <c r="J955" s="1"/>
     </row>
-    <row r="956">
+    <row r="956" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H956" s="1"/>
       <c r="I956" s="1"/>
       <c r="J956" s="1"/>
     </row>
-    <row r="957">
+    <row r="957" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H957" s="1"/>
       <c r="I957" s="1"/>
       <c r="J957" s="1"/>
     </row>
-    <row r="958">
+    <row r="958" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H958" s="1"/>
       <c r="I958" s="1"/>
       <c r="J958" s="1"/>
     </row>
-    <row r="959">
+    <row r="959" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H959" s="1"/>
       <c r="I959" s="1"/>
       <c r="J959" s="1"/>
     </row>
-    <row r="960">
+    <row r="960" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H960" s="1"/>
       <c r="I960" s="1"/>
       <c r="J960" s="1"/>
     </row>
-    <row r="961">
+    <row r="961" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H961" s="1"/>
       <c r="I961" s="1"/>
       <c r="J961" s="1"/>
     </row>
-    <row r="962">
+    <row r="962" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H962" s="1"/>
       <c r="I962" s="1"/>
       <c r="J962" s="1"/>
     </row>
-    <row r="963">
+    <row r="963" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H963" s="1"/>
       <c r="I963" s="1"/>
       <c r="J963" s="1"/>
     </row>
-    <row r="964">
+    <row r="964" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H964" s="1"/>
       <c r="I964" s="1"/>
       <c r="J964" s="1"/>
     </row>
-    <row r="965">
+    <row r="965" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H965" s="1"/>
       <c r="I965" s="1"/>
       <c r="J965" s="1"/>
     </row>
-    <row r="966">
+    <row r="966" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H966" s="1"/>
       <c r="I966" s="1"/>
       <c r="J966" s="1"/>
     </row>
-    <row r="967">
+    <row r="967" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H967" s="1"/>
       <c r="I967" s="1"/>
       <c r="J967" s="1"/>
     </row>
-    <row r="968">
+    <row r="968" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H968" s="1"/>
       <c r="I968" s="1"/>
       <c r="J968" s="1"/>
     </row>
-    <row r="969">
+    <row r="969" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H969" s="1"/>
       <c r="I969" s="1"/>
       <c r="J969" s="1"/>
     </row>
-    <row r="970">
+    <row r="970" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H970" s="1"/>
       <c r="I970" s="1"/>
       <c r="J970" s="1"/>
     </row>
-    <row r="971">
+    <row r="971" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H971" s="1"/>
       <c r="I971" s="1"/>
       <c r="J971" s="1"/>
     </row>
-    <row r="972">
+    <row r="972" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H972" s="1"/>
       <c r="I972" s="1"/>
       <c r="J972" s="1"/>
     </row>
-    <row r="973">
+    <row r="973" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H973" s="1"/>
       <c r="I973" s="1"/>
       <c r="J973" s="1"/>
     </row>
-    <row r="974">
+    <row r="974" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H974" s="1"/>
       <c r="I974" s="1"/>
       <c r="J974" s="1"/>
     </row>
-    <row r="975">
+    <row r="975" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H975" s="1"/>
       <c r="I975" s="1"/>
       <c r="J975" s="1"/>
     </row>
-    <row r="976">
+    <row r="976" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H976" s="1"/>
       <c r="I976" s="1"/>
       <c r="J976" s="1"/>
     </row>
-    <row r="977">
+    <row r="977" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H977" s="1"/>
       <c r="I977" s="1"/>
       <c r="J977" s="1"/>
     </row>
-    <row r="978">
+    <row r="978" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H978" s="1"/>
       <c r="I978" s="1"/>
       <c r="J978" s="1"/>
     </row>
-    <row r="979">
+    <row r="979" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H979" s="1"/>
       <c r="I979" s="1"/>
       <c r="J979" s="1"/>
     </row>
-    <row r="980">
+    <row r="980" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H980" s="1"/>
       <c r="I980" s="1"/>
       <c r="J980" s="1"/>
     </row>
-    <row r="981">
+    <row r="981" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H981" s="1"/>
       <c r="I981" s="1"/>
       <c r="J981" s="1"/>
     </row>
-    <row r="982">
+    <row r="982" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H982" s="1"/>
       <c r="I982" s="1"/>
       <c r="J982" s="1"/>
     </row>
-    <row r="983">
+    <row r="983" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H983" s="1"/>
       <c r="I983" s="1"/>
       <c r="J983" s="1"/>
     </row>
-    <row r="984">
+    <row r="984" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H984" s="1"/>
       <c r="I984" s="1"/>
       <c r="J984" s="1"/>
     </row>
-    <row r="985">
+    <row r="985" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H985" s="1"/>
       <c r="I985" s="1"/>
       <c r="J985" s="1"/>
     </row>
-    <row r="986">
+    <row r="986" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H986" s="1"/>
       <c r="I986" s="1"/>
       <c r="J986" s="1"/>
     </row>
-    <row r="987">
+    <row r="987" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H987" s="1"/>
       <c r="I987" s="1"/>
       <c r="J987" s="1"/>
     </row>
-    <row r="988">
+    <row r="988" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H988" s="1"/>
       <c r="I988" s="1"/>
       <c r="J988" s="1"/>
     </row>
-    <row r="989">
+    <row r="989" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H989" s="1"/>
       <c r="I989" s="1"/>
       <c r="J989" s="1"/>
     </row>
-    <row r="990">
+    <row r="990" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H990" s="1"/>
       <c r="I990" s="1"/>
       <c r="J990" s="1"/>
     </row>
-    <row r="991">
+    <row r="991" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H991" s="1"/>
       <c r="I991" s="1"/>
       <c r="J991" s="1"/>
     </row>
-    <row r="992">
+    <row r="992" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H992" s="1"/>
       <c r="I992" s="1"/>
       <c r="J992" s="1"/>
     </row>
-    <row r="993">
+    <row r="993" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H993" s="1"/>
       <c r="I993" s="1"/>
       <c r="J993" s="1"/>
     </row>
-    <row r="994">
+    <row r="994" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H994" s="1"/>
       <c r="I994" s="1"/>
       <c r="J994" s="1"/>
     </row>
-    <row r="995">
+    <row r="995" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H995" s="1"/>
       <c r="I995" s="1"/>
       <c r="J995" s="1"/>
     </row>
-    <row r="996">
+    <row r="996" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H996" s="1"/>
       <c r="I996" s="1"/>
       <c r="J996" s="1"/>
     </row>
-    <row r="997">
+    <row r="997" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H997" s="1"/>
       <c r="I997" s="1"/>
       <c r="J997" s="1"/>
     </row>
-    <row r="998">
+    <row r="998" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H998" s="1"/>
       <c r="I998" s="1"/>
       <c r="J998" s="1"/>
     </row>
-    <row r="999">
+    <row r="999" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H999" s="1"/>
       <c r="I999" s="1"/>
       <c r="J999" s="1"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H1000" s="1"/>
       <c r="I1000" s="1"/>
       <c r="J1000" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CS1C_Agile_1.xlsx
+++ b/CS1C_Agile_1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Features</t>
   </si>
@@ -104,12 +104,27 @@
   <si>
     <t>Standing Meeting 9/3</t>
   </si>
+  <si>
+    <t>Standing Meeting 9/8</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>blackout entire day yesterday could not work on feture at all</t>
+  </si>
+  <si>
+    <t>blackout all day could not work</t>
+  </si>
+  <si>
+    <t>Final Finish</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -180,6 +195,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -276,6 +297,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,7 +522,7 @@
   <dimension ref="B1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -505,7 +530,7 @@
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="27.5546875" customWidth="1"/>
     <col min="9" max="9" width="33.33203125" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
@@ -514,6 +539,9 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
@@ -632,34 +660,79 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="G11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="G12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="G13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="G14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
